--- a/tools/odoo_default_tnl.xlsx
+++ b/tools/odoo_default_tnl.xlsx
@@ -6227,7 +6227,7 @@
     <t xml:space="preserve">Current Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">Attività correnti</t>
+    <t xml:space="preserve">Attivo circolante</t>
   </si>
   <si>
     <t xml:space="preserve">Current commitment not found</t>
@@ -27189,11 +27189,11 @@
   </sheetPr>
   <dimension ref="A1:C4537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4501" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4537" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1718" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1731" activeCellId="0" sqref="B1731"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>

--- a/tools/odoo_default_tnl.xlsx
+++ b/tools/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9071" uniqueCount="8585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9075" uniqueCount="8589">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -8942,6 +8942,12 @@
   </si>
   <si>
     <t xml:space="preserve">Numero di registrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causale contabile</t>
   </si>
   <si>
     <t xml:space="preserve">EORI Code</t>
@@ -13671,6 +13677,12 @@
   </si>
   <si>
     <t xml:space="preserve">Righe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lines Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero righe</t>
   </si>
   <si>
     <t xml:space="preserve">Lines Detail</t>
@@ -27493,13 +27505,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4591"/>
+  <dimension ref="A1:C4593"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3020" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3035" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>
@@ -39951,20 +39963,20 @@
         <v>2955</v>
       </c>
       <c r="C1562" s="0" t="s">
-        <v>1345</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1563" s="0" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C1563" s="0" t="s">
-        <v>2956</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1564" s="0" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="C1564" s="0" t="s">
         <v>2958</v>
@@ -39994,19 +40006,19 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="1568" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1568" s="2" t="s">
+    <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1568" s="0" t="s">
         <v>2965</v>
       </c>
-      <c r="C1568" s="2" t="s">
+      <c r="C1568" s="0" t="s">
         <v>2966</v>
       </c>
     </row>
-    <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1569" s="0" t="s">
+    <row r="1569" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1569" s="2" t="s">
         <v>2967</v>
       </c>
-      <c r="C1569" s="0" t="s">
+      <c r="C1569" s="2" t="s">
         <v>2968</v>
       </c>
     </row>
@@ -40063,12 +40075,12 @@
         <v>2981</v>
       </c>
       <c r="C1576" s="0" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1577" s="0" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C1577" s="0" t="s">
         <v>2983</v>
@@ -40095,12 +40107,12 @@
         <v>2988</v>
       </c>
       <c r="C1580" s="0" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1581" s="0" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C1581" s="0" t="s">
         <v>2990</v>
@@ -40158,12 +40170,12 @@
       <c r="B1588" s="0" t="s">
         <v>3003</v>
       </c>
+      <c r="C1588" s="0" t="s">
+        <v>3004</v>
+      </c>
     </row>
     <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1589" s="0" t="s">
-        <v>3004</v>
-      </c>
-      <c r="C1589" s="0" t="s">
         <v>3005</v>
       </c>
     </row>
@@ -40436,15 +40448,15 @@
         <v>3072</v>
       </c>
       <c r="C1623" s="0" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1624" s="0" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C1624" s="0" t="s">
         <v>3073</v>
-      </c>
-      <c r="C1624" s="0" t="s">
-        <v>3074</v>
       </c>
     </row>
     <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40575,16 +40587,16 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="1641" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1641" s="2" t="s">
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1641" s="0" t="s">
         <v>3107</v>
       </c>
-    </row>
-    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1642" s="0" t="s">
+      <c r="C1641" s="0" t="s">
         <v>3108</v>
       </c>
-      <c r="C1642" s="0" t="s">
+    </row>
+    <row r="1642" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1642" s="2" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -40732,16 +40744,16 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="1661" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1661" s="2" t="s">
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1661" s="0" t="s">
         <v>3146</v>
       </c>
-    </row>
-    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1662" s="0" t="s">
+      <c r="C1661" s="0" t="s">
         <v>3147</v>
       </c>
-      <c r="C1662" s="0" t="s">
+    </row>
+    <row r="1662" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1662" s="2" t="s">
         <v>3148</v>
       </c>
     </row>
@@ -40765,7 +40777,7 @@
       <c r="B1665" s="0" t="s">
         <v>3153</v>
       </c>
-      <c r="C1665" s="4" t="s">
+      <c r="C1665" s="0" t="s">
         <v>3154</v>
       </c>
     </row>
@@ -40773,7 +40785,7 @@
       <c r="B1666" s="0" t="s">
         <v>3155</v>
       </c>
-      <c r="C1666" s="0" t="s">
+      <c r="C1666" s="4" t="s">
         <v>3156</v>
       </c>
     </row>
@@ -40782,15 +40794,15 @@
         <v>3157</v>
       </c>
       <c r="C1667" s="0" t="s">
-        <v>2769</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1668" s="0" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C1668" s="0" t="s">
-        <v>3159</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40822,15 +40834,15 @@
         <v>3166</v>
       </c>
       <c r="C1672" s="0" t="s">
-        <v>2786</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1673" s="0" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="C1673" s="0" t="s">
-        <v>3168</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40838,15 +40850,15 @@
         <v>3169</v>
       </c>
       <c r="C1674" s="0" t="s">
-        <v>2790</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1675" s="0" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C1675" s="0" t="s">
-        <v>3171</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40854,23 +40866,23 @@
         <v>3172</v>
       </c>
       <c r="C1676" s="0" t="s">
-        <v>2775</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1677" s="0" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="C1677" s="0" t="s">
-        <v>2801</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1678" s="0" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C1678" s="0" t="s">
-        <v>3175</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40886,12 +40898,12 @@
         <v>3178</v>
       </c>
       <c r="C1680" s="0" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1681" s="0" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="C1681" s="0" t="s">
         <v>3180</v>
@@ -41094,20 +41106,20 @@
         <v>3229</v>
       </c>
       <c r="C1706" s="0" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1707" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="C1707" s="0" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1708" s="0" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1708" s="0" t="s">
         <v>3232</v>
@@ -41161,24 +41173,24 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="1715" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1715" s="2" t="s">
+    <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1715" s="0" t="s">
         <v>3245</v>
       </c>
-    </row>
-    <row r="1716" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1715" s="0" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1716" s="2" t="s">
-        <v>3246</v>
-      </c>
-      <c r="C1716" s="2" t="s">
         <v>3247</v>
       </c>
     </row>
-    <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1717" s="0" t="s">
+    <row r="1717" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1717" s="2" t="s">
         <v>3248</v>
       </c>
-      <c r="C1717" s="0" t="s">
+      <c r="C1717" s="2" t="s">
         <v>3249</v>
       </c>
     </row>
@@ -41187,15 +41199,15 @@
         <v>3250</v>
       </c>
       <c r="C1718" s="0" t="s">
-        <v>3244</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1719" s="0" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="C1719" s="0" t="s">
-        <v>3252</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41363,15 +41375,15 @@
         <v>3293</v>
       </c>
       <c r="C1740" s="0" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1741" s="0" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1741" s="0" t="s">
         <v>3294</v>
-      </c>
-      <c r="C1741" s="0" t="s">
-        <v>3295</v>
       </c>
     </row>
     <row r="1742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41427,15 +41439,15 @@
         <v>3308</v>
       </c>
       <c r="C1748" s="0" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1749" s="0" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C1749" s="0" t="s">
         <v>3309</v>
-      </c>
-      <c r="C1749" s="0" t="s">
-        <v>3310</v>
       </c>
     </row>
     <row r="1750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41443,15 +41455,15 @@
         <v>3311</v>
       </c>
       <c r="C1750" s="0" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1751" s="0" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C1751" s="0" t="s">
         <v>3312</v>
-      </c>
-      <c r="C1751" s="0" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="1752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41562,12 +41574,12 @@
       <c r="B1765" s="0" t="s">
         <v>3340</v>
       </c>
+      <c r="C1765" s="0" t="s">
+        <v>3341</v>
+      </c>
     </row>
     <row r="1766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1766" s="0" t="s">
-        <v>3341</v>
-      </c>
-      <c r="C1766" s="0" t="s">
         <v>3342</v>
       </c>
     </row>
@@ -41639,20 +41651,20 @@
       <c r="B1775" s="0" t="s">
         <v>3359</v>
       </c>
-    </row>
-    <row r="1776" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1776" s="2" t="s">
+      <c r="C1775" s="0" t="s">
         <v>3360</v>
       </c>
-      <c r="C1776" s="2" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="1777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1777" s="0" t="s">
+    </row>
+    <row r="1776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1776" s="0" t="s">
         <v>3361</v>
       </c>
-      <c r="C1777" s="0" t="s">
+    </row>
+    <row r="1777" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1777" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C1777" s="2" t="s">
         <v>3362</v>
       </c>
     </row>
@@ -41672,19 +41684,19 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="1780" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1780" s="2" t="s">
+    <row r="1780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1780" s="0" t="s">
         <v>3367</v>
       </c>
-      <c r="C1780" s="2" t="s">
+      <c r="C1780" s="0" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="1781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1781" s="0" t="s">
+    <row r="1781" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1781" s="2" t="s">
         <v>3369</v>
       </c>
-      <c r="C1781" s="0" t="s">
+      <c r="C1781" s="2" t="s">
         <v>3370</v>
       </c>
     </row>
@@ -41732,12 +41744,12 @@
       <c r="B1787" s="0" t="s">
         <v>3381</v>
       </c>
+      <c r="C1787" s="0" t="s">
+        <v>3382</v>
+      </c>
     </row>
     <row r="1788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1788" s="0" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C1788" s="0" t="s">
         <v>3383</v>
       </c>
     </row>
@@ -41770,12 +41782,12 @@
         <v>3390</v>
       </c>
       <c r="C1792" s="0" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="1793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1793" s="0" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="C1793" s="0" t="s">
         <v>3392</v>
@@ -41825,27 +41837,27 @@
       <c r="B1799" s="0" t="s">
         <v>3403</v>
       </c>
+      <c r="C1799" s="0" t="s">
+        <v>3404</v>
+      </c>
     </row>
     <row r="1800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1800" s="0" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1801" s="0" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1802" s="0" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1803" s="0" t="s">
-        <v>3407</v>
-      </c>
-      <c r="C1803" s="0" t="s">
         <v>3408</v>
       </c>
     </row>
@@ -41910,15 +41922,15 @@
         <v>3423</v>
       </c>
       <c r="C1811" s="0" t="s">
-        <v>1266</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1812" s="0" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="C1812" s="0" t="s">
-        <v>3425</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41998,15 +42010,15 @@
         <v>3444</v>
       </c>
       <c r="C1822" s="0" t="s">
-        <v>1700</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="1823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1823" s="0" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="C1823" s="0" t="s">
-        <v>3446</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42029,12 +42041,12 @@
       <c r="B1826" s="0" t="s">
         <v>3451</v>
       </c>
+      <c r="C1826" s="0" t="s">
+        <v>3452</v>
+      </c>
     </row>
     <row r="1827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1827" s="0" t="s">
-        <v>3452</v>
-      </c>
-      <c r="C1827" s="0" t="s">
         <v>3453</v>
       </c>
     </row>
@@ -42051,20 +42063,20 @@
         <v>3456</v>
       </c>
       <c r="C1829" s="0" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1830" s="0" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C1830" s="0" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="1831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1831" s="0" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C1831" s="0" t="s">
         <v>3459</v>
@@ -42075,12 +42087,12 @@
         <v>3460</v>
       </c>
       <c r="C1832" s="0" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1833" s="0" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="C1833" s="0" t="s">
         <v>3462</v>
@@ -42090,12 +42102,12 @@
       <c r="B1834" s="0" t="s">
         <v>3463</v>
       </c>
+      <c r="C1834" s="0" t="s">
+        <v>3464</v>
+      </c>
     </row>
     <row r="1835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1835" s="0" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C1835" s="0" t="s">
         <v>3465</v>
       </c>
     </row>
@@ -42112,15 +42124,15 @@
         <v>3468</v>
       </c>
       <c r="C1837" s="0" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1838" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C1838" s="0" t="s">
         <v>3469</v>
-      </c>
-      <c r="C1838" s="0" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="1839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42128,15 +42140,15 @@
         <v>3471</v>
       </c>
       <c r="C1839" s="0" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1840" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C1840" s="0" t="s">
         <v>3472</v>
-      </c>
-      <c r="C1840" s="0" t="s">
-        <v>3473</v>
       </c>
     </row>
     <row r="1841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42219,19 +42231,19 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="1851" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1851" s="2" t="s">
+    <row r="1851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1851" s="0" t="s">
         <v>3494</v>
       </c>
-      <c r="C1851" s="2" t="s">
+      <c r="C1851" s="0" t="s">
         <v>3495</v>
       </c>
     </row>
-    <row r="1852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1852" s="0" t="s">
+    <row r="1852" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1852" s="2" t="s">
         <v>3496</v>
       </c>
-      <c r="C1852" s="0" t="s">
+      <c r="C1852" s="2" t="s">
         <v>3497</v>
       </c>
     </row>
@@ -42240,12 +42252,12 @@
         <v>3498</v>
       </c>
       <c r="C1853" s="0" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1854" s="0" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="C1854" s="0" t="s">
         <v>3500</v>
@@ -42303,18 +42315,18 @@
       <c r="B1861" s="0" t="s">
         <v>3513</v>
       </c>
+      <c r="C1861" s="0" t="s">
+        <v>3514</v>
+      </c>
     </row>
     <row r="1862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1862" s="0" t="s">
-        <v>3514</v>
-      </c>
-      <c r="C1862" s="0" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1863" s="0" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="C1863" s="0" t="s">
         <v>3516</v>
@@ -42368,19 +42380,19 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="1870" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1870" s="2" t="s">
+    <row r="1870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1870" s="0" t="s">
         <v>3529</v>
       </c>
-      <c r="C1870" s="2" t="s">
+      <c r="C1870" s="0" t="s">
         <v>3530</v>
       </c>
     </row>
-    <row r="1871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1871" s="0" t="s">
+    <row r="1871" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1871" s="2" t="s">
         <v>3531</v>
       </c>
-      <c r="C1871" s="0" t="s">
+      <c r="C1871" s="2" t="s">
         <v>3532</v>
       </c>
     </row>
@@ -42405,15 +42417,15 @@
         <v>3537</v>
       </c>
       <c r="C1874" s="0" t="s">
-        <v>2528</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1875" s="0" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1875" s="0" t="s">
-        <v>3539</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42432,19 +42444,19 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="1878" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1878" s="2" t="s">
+    <row r="1878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1878" s="0" t="s">
         <v>3544</v>
       </c>
-      <c r="C1878" s="2" t="s">
+      <c r="C1878" s="0" t="s">
         <v>3545</v>
       </c>
     </row>
-    <row r="1879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1879" s="0" t="s">
+    <row r="1879" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1879" s="2" t="s">
         <v>3546</v>
       </c>
-      <c r="C1879" s="0" t="s">
+      <c r="C1879" s="2" t="s">
         <v>3547</v>
       </c>
     </row>
@@ -42549,12 +42561,12 @@
         <v>3572</v>
       </c>
       <c r="C1892" s="0" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1893" s="0" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="C1893" s="0" t="s">
         <v>3574</v>
@@ -42629,15 +42641,15 @@
         <v>3591</v>
       </c>
       <c r="C1902" s="0" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1903" s="0" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C1903" s="0" t="s">
         <v>3592</v>
-      </c>
-      <c r="C1903" s="0" t="s">
-        <v>3593</v>
       </c>
     </row>
     <row r="1904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42741,12 +42753,12 @@
         <v>3618</v>
       </c>
       <c r="C1916" s="0" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="1917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1917" s="0" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="C1917" s="0" t="s">
         <v>3620</v>
@@ -42757,12 +42769,12 @@
         <v>3621</v>
       </c>
       <c r="C1918" s="0" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1919" s="0" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C1919" s="0" t="s">
         <v>3623</v>
@@ -42773,36 +42785,36 @@
         <v>3624</v>
       </c>
       <c r="C1920" s="0" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1921" s="0" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="C1921" s="0" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1922" s="0" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="C1922" s="0" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1923" s="0" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="C1923" s="0" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="1924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1924" s="0" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C1924" s="0" t="s">
         <v>3629</v>
@@ -42813,12 +42825,12 @@
         <v>3630</v>
       </c>
       <c r="C1925" s="0" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1926" s="0" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C1926" s="0" t="s">
         <v>3632</v>
@@ -42885,15 +42897,15 @@
         <v>3647</v>
       </c>
       <c r="C1934" s="0" t="s">
-        <v>1845</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1935" s="0" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1935" s="0" t="s">
-        <v>3649</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42957,12 +42969,12 @@
         <v>3664</v>
       </c>
       <c r="C1943" s="0" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="1944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1944" s="0" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="C1944" s="0" t="s">
         <v>3666</v>
@@ -43104,19 +43116,19 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="1962" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1962" s="2" t="s">
+    <row r="1962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1962" s="0" t="s">
         <v>3701</v>
       </c>
-      <c r="C1962" s="2" t="s">
+      <c r="C1962" s="0" t="s">
         <v>3702</v>
       </c>
     </row>
-    <row r="1963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1963" s="0" t="s">
+    <row r="1963" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1963" s="2" t="s">
         <v>3703</v>
       </c>
-      <c r="C1963" s="0" t="s">
+      <c r="C1963" s="2" t="s">
         <v>3704</v>
       </c>
     </row>
@@ -43229,12 +43241,12 @@
         <v>3731</v>
       </c>
       <c r="C1977" s="0" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="1978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1978" s="0" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="C1978" s="0" t="s">
         <v>3733</v>
@@ -43245,12 +43257,12 @@
         <v>3734</v>
       </c>
       <c r="C1979" s="0" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1980" s="0" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="C1980" s="0" t="s">
         <v>3736</v>
@@ -43296,19 +43308,19 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="1986" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1986" s="2" t="s">
+    <row r="1986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1986" s="0" t="s">
         <v>3747</v>
       </c>
-      <c r="C1986" s="2" t="s">
+      <c r="C1986" s="0" t="s">
         <v>3748</v>
       </c>
     </row>
-    <row r="1987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1987" s="0" t="s">
+    <row r="1987" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1987" s="2" t="s">
         <v>3749</v>
       </c>
-      <c r="C1987" s="0" t="s">
+      <c r="C1987" s="2" t="s">
         <v>3750</v>
       </c>
     </row>
@@ -43332,12 +43344,12 @@
       <c r="B1990" s="0" t="s">
         <v>3755</v>
       </c>
+      <c r="C1990" s="0" t="s">
+        <v>3756</v>
+      </c>
     </row>
     <row r="1991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1991" s="0" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C1991" s="0" t="s">
         <v>3757</v>
       </c>
     </row>
@@ -43345,26 +43357,26 @@
       <c r="B1992" s="0" t="s">
         <v>3758</v>
       </c>
+      <c r="C1992" s="0" t="s">
+        <v>3759</v>
+      </c>
     </row>
     <row r="1993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1993" s="0" t="s">
-        <v>3759</v>
-      </c>
-      <c r="C1993" s="0" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1994" s="0" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="C1994" s="0" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="1995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1995" s="0" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="C1995" s="0" t="s">
         <v>3762</v>
@@ -43406,12 +43418,12 @@
       <c r="B2000" s="0" t="s">
         <v>3771</v>
       </c>
+      <c r="C2000" s="0" t="s">
+        <v>3772</v>
+      </c>
     </row>
     <row r="2001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2001" s="0" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C2001" s="0" t="s">
         <v>3773</v>
       </c>
     </row>
@@ -43500,23 +43512,23 @@
         <v>3794</v>
       </c>
       <c r="C2012" s="0" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="2013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2013" s="0" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="C2013" s="0" t="s">
-        <v>2320</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2014" s="0" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="C2014" s="0" t="s">
-        <v>3797</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="2015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43556,15 +43568,15 @@
         <v>3806</v>
       </c>
       <c r="C2019" s="0" t="s">
-        <v>3794</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="2020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2020" s="0" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="C2020" s="0" t="s">
-        <v>3808</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="2021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43647,16 +43659,16 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="2031" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2031" s="2" t="s">
+    <row r="2031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2031" s="0" t="s">
         <v>3829</v>
       </c>
-    </row>
-    <row r="2032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2032" s="0" t="s">
+      <c r="C2031" s="0" t="s">
         <v>3830</v>
       </c>
-      <c r="C2032" s="0" t="s">
+    </row>
+    <row r="2032" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2032" s="2" t="s">
         <v>3831</v>
       </c>
     </row>
@@ -43676,16 +43688,16 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="2035" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2035" s="2" t="s">
+    <row r="2035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2035" s="0" t="s">
         <v>3836</v>
       </c>
-    </row>
-    <row r="2036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2036" s="0" t="s">
+      <c r="C2035" s="0" t="s">
         <v>3837</v>
       </c>
-      <c r="C2036" s="0" t="s">
+    </row>
+    <row r="2036" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2036" s="2" t="s">
         <v>3838</v>
       </c>
     </row>
@@ -43829,17 +43841,17 @@
       <c r="B2054" s="0" t="s">
         <v>3873</v>
       </c>
+      <c r="C2054" s="0" t="s">
+        <v>3874</v>
+      </c>
     </row>
     <row r="2055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2055" s="0" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="2056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2056" s="0" t="s">
-        <v>3875</v>
-      </c>
-      <c r="C2056" s="0" t="s">
         <v>3876</v>
       </c>
     </row>
@@ -43920,30 +43932,30 @@
         <v>3895</v>
       </c>
       <c r="C2066" s="0" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="2067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2067" s="0" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C2067" s="0" t="s">
         <v>3896</v>
       </c>
-      <c r="C2067" s="0" t="s">
+    </row>
+    <row r="2068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2068" s="0" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C2068" s="0" t="s">
         <v>2863</v>
       </c>
     </row>
-    <row r="2068" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2068" s="2" t="s">
-        <v>3897</v>
-      </c>
-      <c r="C2068" s="2" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="2069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2069" s="0" t="s">
+    <row r="2069" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2069" s="2" t="s">
         <v>3899</v>
       </c>
-      <c r="C2069" s="0" t="s">
+      <c r="C2069" s="2" t="s">
         <v>3900</v>
       </c>
     </row>
@@ -44048,23 +44060,23 @@
         <v>3925</v>
       </c>
       <c r="C2082" s="0" t="s">
-        <v>2015</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="2083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2083" s="0" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="C2083" s="0" t="s">
-        <v>2350</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2084" s="0" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="C2084" s="0" t="s">
-        <v>3928</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44103,21 +44115,21 @@
       <c r="B2089" s="0" t="s">
         <v>3937</v>
       </c>
+      <c r="C2089" s="0" t="s">
+        <v>3938</v>
+      </c>
     </row>
     <row r="2090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2090" s="0" t="s">
-        <v>3938</v>
-      </c>
-      <c r="C2090" s="0" t="s">
-        <v>851</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="2091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2091" s="0" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C2091" s="0" t="s">
-        <v>3940</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44221,23 +44233,23 @@
         <v>3965</v>
       </c>
       <c r="C2104" s="0" t="s">
-        <v>3964</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="2105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2105" s="0" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C2105" s="0" t="s">
         <v>3966</v>
-      </c>
-      <c r="C2105" s="0" t="s">
-        <v>3964</v>
       </c>
     </row>
     <row r="2106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2106" s="0" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="C2106" s="0" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="2107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44253,12 +44265,12 @@
         <v>3971</v>
       </c>
       <c r="C2108" s="0" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="2109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2109" s="0" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="C2109" s="0" t="s">
         <v>3973</v>
@@ -44292,12 +44304,12 @@
       <c r="B2113" s="0" t="s">
         <v>3980</v>
       </c>
+      <c r="C2113" s="0" t="s">
+        <v>3981</v>
+      </c>
     </row>
     <row r="2114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2114" s="0" t="s">
-        <v>3981</v>
-      </c>
-      <c r="C2114" s="0" t="s">
         <v>3982</v>
       </c>
     </row>
@@ -44330,12 +44342,12 @@
         <v>3989</v>
       </c>
       <c r="C2118" s="0" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="2119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2119" s="0" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="C2119" s="0" t="s">
         <v>3991</v>
@@ -44362,15 +44374,15 @@
         <v>3996</v>
       </c>
       <c r="C2122" s="0" t="s">
-        <v>686</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="2123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2123" s="0" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="C2123" s="0" t="s">
-        <v>3998</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44410,20 +44422,20 @@
         <v>4007</v>
       </c>
       <c r="C2128" s="0" t="s">
-        <v>3998</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="2129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2129" s="0" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C2129" s="0" t="s">
-        <v>4008</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="2130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2130" s="0" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="C2130" s="0" t="s">
         <v>4010</v>
@@ -44442,15 +44454,15 @@
         <v>4013</v>
       </c>
       <c r="C2132" s="0" t="s">
-        <v>4012</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="2133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2133" s="0" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C2133" s="0" t="s">
         <v>4014</v>
-      </c>
-      <c r="C2133" s="0" t="s">
-        <v>4015</v>
       </c>
     </row>
     <row r="2134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44553,12 +44565,12 @@
       <c r="B2146" s="0" t="s">
         <v>4040</v>
       </c>
+      <c r="C2146" s="0" t="s">
+        <v>4041</v>
+      </c>
     </row>
     <row r="2147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2147" s="0" t="s">
-        <v>4041</v>
-      </c>
-      <c r="C2147" s="0" t="s">
         <v>4042</v>
       </c>
     </row>
@@ -44622,12 +44634,12 @@
       <c r="B2155" s="0" t="s">
         <v>4057</v>
       </c>
+      <c r="C2155" s="0" t="s">
+        <v>4058</v>
+      </c>
     </row>
     <row r="2156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2156" s="0" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C2156" s="0" t="s">
         <v>4059</v>
       </c>
     </row>
@@ -44851,12 +44863,12 @@
       <c r="B2184" s="0" t="s">
         <v>4114</v>
       </c>
+      <c r="C2184" s="0" t="s">
+        <v>4115</v>
+      </c>
     </row>
     <row r="2185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2185" s="0" t="s">
-        <v>4115</v>
-      </c>
-      <c r="C2185" s="0" t="s">
         <v>4116</v>
       </c>
     </row>
@@ -44936,12 +44948,12 @@
       <c r="B2195" s="0" t="s">
         <v>4135</v>
       </c>
+      <c r="C2195" s="0" t="s">
+        <v>4136</v>
+      </c>
     </row>
     <row r="2196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2196" s="0" t="s">
-        <v>4136</v>
-      </c>
-      <c r="C2196" s="0" t="s">
         <v>4137</v>
       </c>
     </row>
@@ -44969,19 +44981,19 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="2200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2200" s="2" t="s">
+    <row r="2200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2200" s="0" t="s">
         <v>4144</v>
       </c>
-      <c r="C2200" s="2" t="s">
+      <c r="C2200" s="0" t="s">
         <v>4145</v>
       </c>
     </row>
-    <row r="2201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2201" s="0" t="s">
+    <row r="2201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2201" s="2" t="s">
         <v>4146</v>
       </c>
-      <c r="C2201" s="0" t="s">
+      <c r="C2201" s="2" t="s">
         <v>4147</v>
       </c>
     </row>
@@ -45046,15 +45058,15 @@
         <v>4162</v>
       </c>
       <c r="C2209" s="0" t="s">
-        <v>403</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="2210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2210" s="0" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="C2210" s="0" t="s">
-        <v>4164</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45094,15 +45106,15 @@
         <v>4173</v>
       </c>
       <c r="C2215" s="0" t="s">
-        <v>2267</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="2216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2216" s="0" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="C2216" s="0" t="s">
-        <v>4175</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="2217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45126,15 +45138,15 @@
         <v>4180</v>
       </c>
       <c r="C2219" s="0" t="s">
-        <v>4179</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="2220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2220" s="0" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C2220" s="0" t="s">
         <v>4181</v>
-      </c>
-      <c r="C2220" s="0" t="s">
-        <v>4182</v>
       </c>
     </row>
     <row r="2221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45214,15 +45226,15 @@
         <v>4201</v>
       </c>
       <c r="C2230" s="0" t="s">
-        <v>3940</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="2231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2231" s="0" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="C2231" s="0" t="s">
-        <v>4203</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="2232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45262,15 +45274,15 @@
         <v>4212</v>
       </c>
       <c r="C2236" s="0" t="s">
-        <v>1174</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="2237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2237" s="0" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="C2237" s="0" t="s">
-        <v>4214</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="2238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45278,15 +45290,15 @@
         <v>4215</v>
       </c>
       <c r="C2238" s="0" t="s">
-        <v>444</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="2239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2239" s="0" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="C2239" s="0" t="s">
-        <v>4217</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45310,12 +45322,12 @@
         <v>4222</v>
       </c>
       <c r="C2242" s="0" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="2243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2243" s="0" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="C2243" s="0" t="s">
         <v>4224</v>
@@ -45325,17 +45337,17 @@
       <c r="B2244" s="0" t="s">
         <v>4225</v>
       </c>
+      <c r="C2244" s="0" t="s">
+        <v>4226</v>
+      </c>
     </row>
     <row r="2245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2245" s="0" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="2246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2246" s="0" t="s">
-        <v>4227</v>
-      </c>
-      <c r="C2246" s="0" t="s">
         <v>4228</v>
       </c>
     </row>
@@ -45360,60 +45372,60 @@
         <v>4233</v>
       </c>
       <c r="C2249" s="0" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="2250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2250" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="C2250" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="2251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2251" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="C2251" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="2252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2252" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="C2252" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="2253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2253" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="C2253" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="2254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2254" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="C2254" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="2255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2255" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="C2255" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="2256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2256" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="C2256" s="0" t="s">
         <v>4241</v>
@@ -45464,15 +45476,15 @@
         <v>4252</v>
       </c>
       <c r="C2262" s="0" t="s">
-        <v>4247</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="2263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2263" s="0" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="C2263" s="0" t="s">
-        <v>4254</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="2264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45480,15 +45492,15 @@
         <v>4255</v>
       </c>
       <c r="C2264" s="0" t="s">
-        <v>2744</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="2265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2265" s="0" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="C2265" s="0" t="s">
-        <v>4257</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="2266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45520,15 +45532,15 @@
         <v>4264</v>
       </c>
       <c r="C2269" s="0" t="s">
-        <v>4263</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="2270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2270" s="0" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C2270" s="0" t="s">
         <v>4265</v>
-      </c>
-      <c r="C2270" s="0" t="s">
-        <v>4266</v>
       </c>
     </row>
     <row r="2271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45640,12 +45652,12 @@
         <v>4293</v>
       </c>
       <c r="C2284" s="0" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="2285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2285" s="0" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="C2285" s="0" t="s">
         <v>4295</v>
@@ -45672,15 +45684,15 @@
         <v>4300</v>
       </c>
       <c r="C2288" s="0" t="s">
-        <v>456</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="2289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2289" s="0" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="C2289" s="0" t="s">
-        <v>4302</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45752,12 +45764,12 @@
         <v>4319</v>
       </c>
       <c r="C2298" s="0" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="2299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2299" s="0" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="C2299" s="0" t="s">
         <v>4321</v>
@@ -45784,12 +45796,12 @@
         <v>4326</v>
       </c>
       <c r="C2302" s="0" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="2303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2303" s="0" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="C2303" s="0" t="s">
         <v>4328</v>
@@ -45808,12 +45820,12 @@
         <v>4331</v>
       </c>
       <c r="C2305" s="0" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="2306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2306" s="0" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="C2306" s="0" t="s">
         <v>4333</v>
@@ -45824,20 +45836,20 @@
         <v>4334</v>
       </c>
       <c r="C2307" s="0" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="2308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2308" s="0" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="C2308" s="0" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="2309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2309" s="0" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="C2309" s="0" t="s">
         <v>4337</v>
@@ -45848,12 +45860,12 @@
         <v>4338</v>
       </c>
       <c r="C2310" s="0" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="2311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2311" s="0" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="C2311" s="0" t="s">
         <v>4340</v>
@@ -45880,12 +45892,12 @@
         <v>4345</v>
       </c>
       <c r="C2314" s="0" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2315" s="0" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="C2315" s="0" t="s">
         <v>4347</v>
@@ -45968,12 +45980,12 @@
         <v>4366</v>
       </c>
       <c r="C2325" s="0" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="2326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2326" s="0" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="C2326" s="0" t="s">
         <v>4368</v>
@@ -46288,12 +46300,12 @@
         <v>4445</v>
       </c>
       <c r="C2365" s="0" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2366" s="0" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="C2366" s="0" t="s">
         <v>4447</v>
@@ -46352,12 +46364,12 @@
         <v>4460</v>
       </c>
       <c r="C2373" s="0" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2374" s="0" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
       <c r="C2374" s="0" t="s">
         <v>4462</v>
@@ -46384,12 +46396,12 @@
         <v>4467</v>
       </c>
       <c r="C2377" s="0" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2378" s="0" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="C2378" s="0" t="s">
         <v>4469</v>
@@ -46424,15 +46436,15 @@
         <v>4476</v>
       </c>
       <c r="C2382" s="0" t="s">
-        <v>4280</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2383" s="0" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="C2383" s="0" t="s">
-        <v>4478</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="2384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46491,11 +46503,11 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="2391" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2391" s="2" t="s">
+    <row r="2391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2391" s="0" t="s">
         <v>4493</v>
       </c>
-      <c r="C2391" s="2" t="s">
+      <c r="C2391" s="0" t="s">
         <v>4494</v>
       </c>
     </row>
@@ -46507,11 +46519,11 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="2393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2393" s="0" t="s">
+    <row r="2393" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2393" s="2" t="s">
         <v>4497</v>
       </c>
-      <c r="C2393" s="0" t="s">
+      <c r="C2393" s="2" t="s">
         <v>4498</v>
       </c>
     </row>
@@ -46688,23 +46700,23 @@
         <v>4541</v>
       </c>
       <c r="C2415" s="0" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="2416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2416" s="0" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="C2416" s="0" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="2417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2417" s="0" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C2417" s="0" t="s">
         <v>4544</v>
-      </c>
-      <c r="C2417" s="0" t="s">
-        <v>4545</v>
       </c>
     </row>
     <row r="2418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46744,55 +46756,55 @@
         <v>4554</v>
       </c>
       <c r="C2422" s="0" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="2423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2423" s="0" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="C2423" s="0" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="2424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2424" s="0" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C2424" s="0" t="s">
         <v>4557</v>
-      </c>
-      <c r="C2424" s="0" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="2425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2425" s="0" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="C2425" s="0" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="2426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2426" s="0" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C2426" s="0" t="s">
         <v>4560</v>
-      </c>
-      <c r="C2426" s="0" t="s">
-        <v>4559</v>
       </c>
     </row>
     <row r="2427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2427" s="0" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="C2427" s="0" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="2428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2428" s="0" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C2428" s="0" t="s">
         <v>4563</v>
-      </c>
-      <c r="C2428" s="0" t="s">
-        <v>4564</v>
       </c>
     </row>
     <row r="2429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46800,20 +46812,20 @@
         <v>4565</v>
       </c>
       <c r="C2429" s="0" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2430" s="0" t="s">
-        <v>6</v>
+        <v>4567</v>
       </c>
       <c r="C2430" s="0" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2431" s="0" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
       <c r="C2431" s="0" t="s">
         <v>4568</v>
@@ -46821,7 +46833,7 @@
     </row>
     <row r="2432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2432" s="0" t="s">
-        <v>4569</v>
+        <v>6</v>
       </c>
       <c r="C2432" s="0" t="s">
         <v>4570</v>
@@ -46848,55 +46860,55 @@
         <v>4575</v>
       </c>
       <c r="C2435" s="0" t="s">
-        <v>2946</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="2436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2436" s="0" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="C2436" s="0" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="2437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2437" s="0" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="C2437" s="0" t="s">
-        <v>4578</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="2438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2438" s="0" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="C2438" s="0" t="s">
-        <v>4579</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2439" s="0" t="s">
-        <v>4580</v>
+        <v>4582</v>
       </c>
       <c r="C2439" s="0" t="s">
-        <v>4573</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="2440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2440" s="0" t="s">
-        <v>4581</v>
+        <v>4583</v>
       </c>
       <c r="C2440" s="0" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2441" s="0" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="C2441" s="0" t="s">
-        <v>4584</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46984,30 +46996,30 @@
         <v>4605</v>
       </c>
       <c r="C2452" s="0" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2453" s="0" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="C2453" s="0" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="2454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2454" s="0" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="C2454" s="0" t="s">
         <v>4609</v>
       </c>
     </row>
-    <row r="2455" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2455" s="2" t="s">
+    <row r="2455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2455" s="0" t="s">
         <v>4610</v>
       </c>
-      <c r="C2455" s="2" t="s">
+      <c r="C2455" s="0" t="s">
         <v>4611</v>
       </c>
     </row>
@@ -47015,20 +47027,20 @@
       <c r="B2456" s="0" t="s">
         <v>4612</v>
       </c>
-    </row>
-    <row r="2457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2457" s="0" t="s">
+      <c r="C2456" s="0" t="s">
         <v>4613</v>
       </c>
-      <c r="C2457" s="0" t="s">
+    </row>
+    <row r="2457" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2457" s="2" t="s">
         <v>4614</v>
+      </c>
+      <c r="C2457" s="2" t="s">
+        <v>4615</v>
       </c>
     </row>
     <row r="2458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2458" s="0" t="s">
-        <v>4615</v>
-      </c>
-      <c r="C2458" s="0" t="s">
         <v>4616</v>
       </c>
     </row>
@@ -47101,20 +47113,20 @@
         <v>4633</v>
       </c>
       <c r="C2467" s="0" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="2468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2468" s="0" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="C2468" s="0" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="2469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2469" s="0" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="C2469" s="0" t="s">
         <v>4636</v>
@@ -47122,15 +47134,15 @@
     </row>
     <row r="2470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2470" s="0" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="C2470" s="0" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="2471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2471" s="0" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="C2471" s="0" t="s">
         <v>4640</v>
@@ -47141,28 +47153,28 @@
         <v>4641</v>
       </c>
       <c r="C2472" s="0" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="2473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2473" s="0" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="C2473" s="0" t="s">
-        <v>4642</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="2474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2474" s="0" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
       <c r="C2474" s="0" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="2475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2475" s="0" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="C2475" s="0" t="s">
         <v>4646</v>
@@ -47188,28 +47200,28 @@
       <c r="B2478" s="0" t="s">
         <v>4651</v>
       </c>
+      <c r="C2478" s="0" t="s">
+        <v>4652</v>
+      </c>
     </row>
     <row r="2479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2479" s="0" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="C2479" s="0" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2480" s="0" t="s">
-        <v>4654</v>
-      </c>
-      <c r="C2480" s="0" t="s">
         <v>4655</v>
       </c>
     </row>
-    <row r="2481" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2481" s="2" t="s">
+    <row r="2481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2481" s="0" t="s">
         <v>4656</v>
       </c>
-      <c r="C2481" s="2" t="s">
+      <c r="C2481" s="0" t="s">
         <v>4657</v>
       </c>
     </row>
@@ -47221,11 +47233,11 @@
         <v>4659</v>
       </c>
     </row>
-    <row r="2483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2483" s="0" t="s">
+    <row r="2483" customFormat="false" ht="482.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2483" s="2" t="s">
         <v>4660</v>
       </c>
-      <c r="C2483" s="0" t="s">
+      <c r="C2483" s="2" t="s">
         <v>4661</v>
       </c>
     </row>
@@ -47386,20 +47398,20 @@
         <v>4700</v>
       </c>
       <c r="C2503" s="0" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="2504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2504" s="0" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="C2504" s="0" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="2505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2505" s="0" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="C2505" s="0" t="s">
         <v>4704</v>
@@ -47514,28 +47526,28 @@
         <v>4731</v>
       </c>
       <c r="C2519" s="0" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="2520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2520" s="0" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="C2520" s="0" t="s">
-        <v>4732</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="2521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2521" s="0" t="s">
-        <v>4733</v>
+        <v>4735</v>
       </c>
       <c r="C2521" s="0" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="2522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2522" s="0" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="C2522" s="0" t="s">
         <v>4736</v>
@@ -47562,20 +47574,20 @@
         <v>4741</v>
       </c>
       <c r="C2525" s="0" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2526" s="0" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
       <c r="C2526" s="0" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="2527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2527" s="0" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="C2527" s="0" t="s">
         <v>4745</v>
@@ -47617,20 +47629,20 @@
       <c r="B2532" s="0" t="s">
         <v>4754</v>
       </c>
+      <c r="C2532" s="0" t="s">
+        <v>4755</v>
+      </c>
     </row>
     <row r="2533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2533" s="0" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="C2533" s="0" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="2534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2534" s="0" t="s">
-        <v>4757</v>
-      </c>
-      <c r="C2534" s="0" t="s">
         <v>4758</v>
       </c>
     </row>
@@ -47647,23 +47659,23 @@
         <v>4761</v>
       </c>
       <c r="C2536" s="0" t="s">
-        <v>4756</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="2537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2537" s="0" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="C2537" s="0" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="2538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2538" s="0" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="C2538" s="0" t="s">
-        <v>4765</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47694,20 +47706,20 @@
       <c r="B2542" s="0" t="s">
         <v>4772</v>
       </c>
+      <c r="C2542" s="0" t="s">
+        <v>4773</v>
+      </c>
     </row>
     <row r="2543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2543" s="0" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
       <c r="C2543" s="0" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="2544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2544" s="0" t="s">
-        <v>4775</v>
-      </c>
-      <c r="C2544" s="0" t="s">
         <v>4776</v>
       </c>
     </row>
@@ -47748,23 +47760,23 @@
         <v>4785</v>
       </c>
       <c r="C2549" s="0" t="s">
-        <v>4784</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="2550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2550" s="0" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="C2550" s="0" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="2551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2551" s="0" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C2551" s="0" t="s">
         <v>4788</v>
-      </c>
-      <c r="C2551" s="0" t="s">
-        <v>4789</v>
       </c>
     </row>
     <row r="2552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47796,36 +47808,36 @@
         <v>4796</v>
       </c>
       <c r="C2555" s="0" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="2556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2556" s="0" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
       <c r="C2556" s="0" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="2557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2557" s="0" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
       <c r="C2557" s="0" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="2558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2558" s="0" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="C2558" s="0" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="2559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2559" s="0" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="C2559" s="0" t="s">
         <v>4803</v>
@@ -47852,23 +47864,23 @@
         <v>4808</v>
       </c>
       <c r="C2562" s="0" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2563" s="0" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
       <c r="C2563" s="0" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="2564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2564" s="0" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C2564" s="0" t="s">
         <v>4811</v>
-      </c>
-      <c r="C2564" s="0" t="s">
-        <v>4812</v>
       </c>
     </row>
     <row r="2565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47900,23 +47912,23 @@
         <v>4819</v>
       </c>
       <c r="C2568" s="0" t="s">
-        <v>4675</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="2569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2569" s="0" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="C2569" s="0" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="2570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2570" s="0" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
       <c r="C2570" s="0" t="s">
-        <v>4823</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="2571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48116,23 +48128,23 @@
         <v>4872</v>
       </c>
       <c r="C2595" s="0" t="s">
-        <v>3378</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="2596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2596" s="0" t="s">
-        <v>4873</v>
+        <v>4874</v>
       </c>
       <c r="C2596" s="0" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2597" s="0" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="C2597" s="0" t="s">
-        <v>4876</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="2598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48151,11 +48163,11 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="2600" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2600" s="2" t="s">
+    <row r="2600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2600" s="0" t="s">
         <v>4881</v>
       </c>
-      <c r="C2600" s="2" t="s">
+      <c r="C2600" s="0" t="s">
         <v>4882</v>
       </c>
     </row>
@@ -48167,24 +48179,24 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="2602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2602" s="0" t="s">
+    <row r="2602" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2602" s="2" t="s">
         <v>4885</v>
+      </c>
+      <c r="C2602" s="2" t="s">
+        <v>4886</v>
       </c>
     </row>
     <row r="2603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2603" s="0" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="C2603" s="0" t="s">
-        <v>4887</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="2604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2604" s="0" t="s">
-        <v>4888</v>
-      </c>
-      <c r="C2604" s="0" t="s">
         <v>4889</v>
       </c>
     </row>
@@ -48281,20 +48293,20 @@
         <v>4912</v>
       </c>
       <c r="C2616" s="0" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2617" s="0" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
       <c r="C2617" s="0" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="2618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2618" s="0" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="C2618" s="0" t="s">
         <v>4916</v>
@@ -48305,31 +48317,31 @@
         <v>4917</v>
       </c>
       <c r="C2619" s="0" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="2620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2620" s="0" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="C2620" s="0" t="s">
-        <v>2269</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="2621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2621" s="0" t="s">
-        <v>4919</v>
+        <v>4921</v>
       </c>
       <c r="C2621" s="0" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="2622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2622" s="0" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="C2622" s="0" t="s">
-        <v>4922</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="2623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48337,20 +48349,20 @@
         <v>4923</v>
       </c>
       <c r="C2623" s="0" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="2624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2624" s="0" t="s">
-        <v>4924</v>
+        <v>4925</v>
       </c>
       <c r="C2624" s="0" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="2625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2625" s="0" t="s">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="C2625" s="0" t="s">
         <v>4927</v>
@@ -48409,20 +48421,20 @@
         <v>4940</v>
       </c>
       <c r="C2632" s="0" t="s">
-        <v>4940</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2633" s="0" t="s">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="C2633" s="0" t="s">
-        <v>4942</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2634" s="0" t="s">
-        <v>4943</v>
+        <v>4944</v>
       </c>
       <c r="C2634" s="0" t="s">
         <v>4944</v>
@@ -48433,20 +48445,20 @@
         <v>4945</v>
       </c>
       <c r="C2635" s="0" t="s">
-        <v>4945</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2636" s="0" t="s">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="C2636" s="0" t="s">
-        <v>4947</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="2637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2637" s="0" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
       <c r="C2637" s="0" t="s">
         <v>4949</v>
@@ -48513,20 +48525,20 @@
         <v>4964</v>
       </c>
       <c r="C2645" s="0" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2646" s="0" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
       <c r="C2646" s="0" t="s">
-        <v>4957</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2647" s="0" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="C2647" s="0" t="s">
         <v>4967</v>
@@ -48534,10 +48546,10 @@
     </row>
     <row r="2648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2648" s="0" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
       <c r="C2648" s="0" t="s">
-        <v>4969</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48545,23 +48557,23 @@
         <v>4970</v>
       </c>
       <c r="C2649" s="0" t="s">
-        <v>4957</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2650" s="0" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
       <c r="C2650" s="0" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2651" s="0" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="C2651" s="0" t="s">
-        <v>4974</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48585,20 +48597,20 @@
         <v>4979</v>
       </c>
       <c r="C2654" s="0" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2655" s="0" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
       <c r="C2655" s="0" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2656" s="0" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="C2656" s="0" t="s">
         <v>4983</v>
@@ -48617,23 +48629,23 @@
         <v>4986</v>
       </c>
       <c r="C2658" s="0" t="s">
-        <v>2514</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2659" s="0" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="C2659" s="0" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2660" s="0" t="s">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="C2660" s="0" t="s">
-        <v>4990</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="2661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48657,57 +48669,57 @@
         <v>4995</v>
       </c>
       <c r="C2663" s="0" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2664" s="0" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="C2664" s="0" t="s">
-        <v>4997</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="2665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2665" s="0" t="s">
-        <v>4998</v>
+        <v>4999</v>
+      </c>
+      <c r="C2665" s="0" t="s">
+        <v>4999</v>
       </c>
     </row>
     <row r="2666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2666" s="0" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="C2666" s="0" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2667" s="0" t="s">
-        <v>5000</v>
-      </c>
-      <c r="C2667" s="0" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="2668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2668" s="0" t="s">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="C2668" s="0" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2669" s="0" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="C2669" s="0" t="s">
-        <v>5003</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="2670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2670" s="0" t="s">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="C2670" s="0" t="s">
         <v>5005</v>
@@ -48870,65 +48882,65 @@
         <v>5044</v>
       </c>
       <c r="C2690" s="0" t="s">
-        <v>5044</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2691" s="0" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="C2691" s="0" t="s">
-        <v>5046</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2692" s="0" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="C2692" s="0" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="2693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2693" s="0" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="C2693" s="0" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="2694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2694" s="0" t="s">
-        <v>5049</v>
+        <v>5051</v>
+      </c>
+      <c r="C2694" s="0" t="s">
+        <v>5051</v>
       </c>
     </row>
     <row r="2695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2695" s="0" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="C2695" s="0" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="2696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2696" s="0" t="s">
-        <v>5051</v>
-      </c>
-      <c r="C2696" s="0" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2697" s="0" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="C2697" s="0" t="s">
-        <v>5053</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="2698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2698" s="0" t="s">
-        <v>5054</v>
+        <v>5055</v>
       </c>
       <c r="C2698" s="0" t="s">
         <v>5055</v>
@@ -49058,20 +49070,20 @@
       <c r="B2714" s="0" t="s">
         <v>5086</v>
       </c>
+      <c r="C2714" s="0" t="s">
+        <v>5087</v>
+      </c>
     </row>
     <row r="2715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2715" s="0" t="s">
-        <v>5087</v>
+        <v>5088</v>
       </c>
       <c r="C2715" s="0" t="s">
-        <v>5088</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2716" s="0" t="s">
-        <v>5089</v>
-      </c>
-      <c r="C2716" s="0" t="s">
         <v>5090</v>
       </c>
     </row>
@@ -49227,24 +49239,24 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="2736" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2736" s="2" t="s">
+    <row r="2736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2736" s="0" t="s">
         <v>5129</v>
+      </c>
+      <c r="C2736" s="0" t="s">
+        <v>5130</v>
       </c>
     </row>
     <row r="2737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2737" s="0" t="s">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="C2737" s="0" t="s">
-        <v>5131</v>
-      </c>
-    </row>
-    <row r="2738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2738" s="0" t="s">
         <v>5132</v>
       </c>
-      <c r="C2738" s="0" t="s">
+    </row>
+    <row r="2738" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2738" s="2" t="s">
         <v>5133</v>
       </c>
     </row>
@@ -49373,23 +49385,23 @@
         <v>5164</v>
       </c>
       <c r="C2754" s="0" t="s">
-        <v>5162</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2755" s="0" t="s">
-        <v>5165</v>
+        <v>5166</v>
       </c>
       <c r="C2755" s="0" t="s">
-        <v>5166</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2756" s="0" t="s">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="C2756" s="0" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="2757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49528,11 +49540,11 @@
         <v>5202</v>
       </c>
     </row>
-    <row r="2774" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2774" s="2" t="s">
+    <row r="2774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2774" s="0" t="s">
         <v>5203</v>
       </c>
-      <c r="C2774" s="2" t="s">
+      <c r="C2774" s="0" t="s">
         <v>5204</v>
       </c>
     </row>
@@ -49540,36 +49552,36 @@
       <c r="B2775" s="0" t="s">
         <v>5205</v>
       </c>
-    </row>
-    <row r="2776" customFormat="false" ht="1255.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2775" s="0" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="2776" customFormat="false" ht="1176.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2776" s="2" t="s">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="C2776" s="2" t="s">
-        <v>5207</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="2777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2777" s="0" t="s">
-        <v>5208</v>
-      </c>
-      <c r="C2777" s="0" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="2778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2778" s="0" t="s">
+    <row r="2778" customFormat="false" ht="1255.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2778" s="2" t="s">
         <v>5210</v>
       </c>
-      <c r="C2778" s="0" t="s">
+      <c r="C2778" s="2" t="s">
         <v>5211</v>
       </c>
     </row>
-    <row r="2779" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2779" s="2" t="s">
+    <row r="2779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2779" s="0" t="s">
         <v>5212</v>
       </c>
-      <c r="C2779" s="2" t="s">
+      <c r="C2779" s="0" t="s">
         <v>5213</v>
       </c>
     </row>
@@ -49581,105 +49593,105 @@
         <v>5215</v>
       </c>
     </row>
-    <row r="2781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2781" s="0" t="s">
+    <row r="2781" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2781" s="2" t="s">
         <v>5216</v>
       </c>
-      <c r="C2781" s="0" t="s">
+      <c r="C2781" s="2" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="2782" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2782" s="2" t="s">
+    <row r="2782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2782" s="0" t="s">
         <v>5218</v>
       </c>
-      <c r="C2782" s="2" t="s">
+      <c r="C2782" s="0" t="s">
         <v>5219</v>
       </c>
     </row>
-    <row r="2783" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2783" s="2" t="s">
+    <row r="2783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2783" s="0" t="s">
         <v>5220</v>
       </c>
-    </row>
-    <row r="2784" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2783" s="0" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="2784" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2784" s="2" t="s">
-        <v>5221</v>
-      </c>
-    </row>
-    <row r="2785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2785" s="0" t="s">
         <v>5222</v>
       </c>
-      <c r="C2785" s="0" t="s">
+      <c r="C2784" s="2" t="s">
         <v>5223</v>
       </c>
     </row>
-    <row r="2786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2786" s="0" t="s">
+    <row r="2785" customFormat="false" ht="706.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2785" s="2" t="s">
         <v>5224</v>
+      </c>
+    </row>
+    <row r="2786" customFormat="false" ht="1132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2786" s="2" t="s">
+        <v>5225</v>
       </c>
     </row>
     <row r="2787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2787" s="0" t="s">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="C2787" s="0" t="s">
-        <v>5226</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2788" s="0" t="s">
-        <v>5227</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="2789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2789" s="0" t="s">
-        <v>5228</v>
+        <v>5229</v>
+      </c>
+      <c r="C2789" s="0" t="s">
+        <v>5230</v>
       </c>
     </row>
     <row r="2790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2790" s="0" t="s">
-        <v>5229</v>
-      </c>
-    </row>
-    <row r="2791" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2791" s="2" t="s">
-        <v>5230</v>
-      </c>
-      <c r="C2791" s="2" t="s">
         <v>5231</v>
       </c>
     </row>
-    <row r="2792" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2792" s="2" t="s">
+    <row r="2791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2791" s="0" t="s">
         <v>5232</v>
       </c>
-      <c r="C2792" s="2" t="s">
+    </row>
+    <row r="2792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2792" s="0" t="s">
         <v>5233</v>
       </c>
     </row>
-    <row r="2793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2793" s="0" t="s">
+    <row r="2793" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2793" s="2" t="s">
         <v>5234</v>
       </c>
-      <c r="C2793" s="0" t="s">
+      <c r="C2793" s="2" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="2794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2794" s="0" t="s">
+    <row r="2794" customFormat="false" ht="1244.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2794" s="2" t="s">
         <v>5236</v>
       </c>
-      <c r="C2794" s="0" t="s">
+      <c r="C2794" s="2" t="s">
         <v>5237</v>
       </c>
     </row>
-    <row r="2795" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2795" s="2" t="s">
+    <row r="2795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2795" s="0" t="s">
         <v>5238</v>
       </c>
-      <c r="C2795" s="2" t="s">
+      <c r="C2795" s="0" t="s">
         <v>5239</v>
       </c>
     </row>
@@ -49691,7 +49703,7 @@
         <v>5241</v>
       </c>
     </row>
-    <row r="2797" customFormat="false" ht="1446.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2797" customFormat="false" ht="829.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2797" s="2" t="s">
         <v>5242</v>
       </c>
@@ -49707,25 +49719,25 @@
         <v>5245</v>
       </c>
     </row>
-    <row r="2799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2799" s="0" t="s">
+    <row r="2799" customFormat="false" ht="1446.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2799" s="2" t="s">
         <v>5246</v>
       </c>
-      <c r="C2799" s="0" t="s">
-        <v>5246</v>
+      <c r="C2799" s="2" t="s">
+        <v>5247</v>
       </c>
     </row>
     <row r="2800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2800" s="0" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="C2800" s="0" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="2801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2801" s="0" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
       <c r="C2801" s="0" t="s">
         <v>5250</v>
@@ -49752,28 +49764,28 @@
         <v>5255</v>
       </c>
       <c r="C2804" s="0" t="s">
-        <v>5255</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2805" s="0" t="s">
-        <v>5256</v>
+        <v>5257</v>
       </c>
       <c r="C2805" s="0" t="s">
-        <v>5256</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2806" s="0" t="s">
-        <v>5257</v>
+        <v>5259</v>
       </c>
       <c r="C2806" s="0" t="s">
-        <v>5258</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="2807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2807" s="0" t="s">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="C2807" s="0" t="s">
         <v>5260</v>
@@ -49919,25 +49931,25 @@
       <c r="B2825" s="0" t="s">
         <v>5295</v>
       </c>
+      <c r="C2825" s="0" t="s">
+        <v>5296</v>
+      </c>
     </row>
     <row r="2826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2826" s="0" t="s">
-        <v>5296</v>
+        <v>5297</v>
+      </c>
+      <c r="C2826" s="0" t="s">
+        <v>5298</v>
       </c>
     </row>
     <row r="2827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2827" s="0" t="s">
-        <v>5297</v>
-      </c>
-      <c r="C2827" s="0" t="s">
-        <v>5298</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2828" s="0" t="s">
-        <v>5299</v>
-      </c>
-      <c r="C2828" s="0" t="s">
         <v>5300</v>
       </c>
     </row>
@@ -49949,24 +49961,24 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="2830" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2830" s="2" t="s">
+    <row r="2830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2830" s="0" t="s">
         <v>5303</v>
+      </c>
+      <c r="C2830" s="0" t="s">
+        <v>5304</v>
       </c>
     </row>
     <row r="2831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2831" s="0" t="s">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="C2831" s="0" t="s">
-        <v>5305</v>
-      </c>
-    </row>
-    <row r="2832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2832" s="0" t="s">
         <v>5306</v>
       </c>
-      <c r="C2832" s="0" t="s">
+    </row>
+    <row r="2832" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2832" s="2" t="s">
         <v>5307</v>
       </c>
     </row>
@@ -50055,20 +50067,20 @@
         <v>5328</v>
       </c>
       <c r="C2843" s="0" t="s">
-        <v>5328</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="2844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2844" s="0" t="s">
-        <v>5329</v>
+        <v>5330</v>
       </c>
       <c r="C2844" s="0" t="s">
-        <v>5330</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="2845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2845" s="0" t="s">
-        <v>5331</v>
+        <v>5332</v>
       </c>
       <c r="C2845" s="0" t="s">
         <v>5332</v>
@@ -50095,23 +50107,23 @@
         <v>5337</v>
       </c>
       <c r="C2848" s="0" t="s">
-        <v>3450</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="2849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2849" s="0" t="s">
-        <v>5338</v>
+        <v>5339</v>
       </c>
       <c r="C2849" s="0" t="s">
-        <v>5339</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="2850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2850" s="0" t="s">
-        <v>5340</v>
+        <v>5341</v>
       </c>
       <c r="C2850" s="0" t="s">
-        <v>5341</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50370,32 +50382,32 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="2883" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2883" s="2" t="s">
+    <row r="2883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2883" s="0" t="s">
         <v>5406</v>
       </c>
-      <c r="C2883" s="2" t="s">
+      <c r="C2883" s="0" t="s">
         <v>5407</v>
       </c>
     </row>
-    <row r="2884" customFormat="false" ht="1479.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2884" s="2" t="s">
+    <row r="2884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2884" s="0" t="s">
         <v>5408</v>
       </c>
-    </row>
-    <row r="2885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2885" s="0" t="s">
+      <c r="C2884" s="0" t="s">
         <v>5409</v>
       </c>
-      <c r="C2885" s="0" t="s">
+    </row>
+    <row r="2885" customFormat="false" ht="550" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2885" s="2" t="s">
         <v>5410</v>
       </c>
-    </row>
-    <row r="2886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2886" s="0" t="s">
+      <c r="C2885" s="2" t="s">
         <v>5411</v>
       </c>
-      <c r="C2886" s="0" t="s">
+    </row>
+    <row r="2886" customFormat="false" ht="1479.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2886" s="2" t="s">
         <v>5412</v>
       </c>
     </row>
@@ -50487,35 +50499,35 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="2898" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2898" s="2" t="s">
+    <row r="2898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2898" s="0" t="s">
         <v>5435</v>
       </c>
-      <c r="C2898" s="2" t="s">
+      <c r="C2898" s="0" t="s">
         <v>5436</v>
       </c>
     </row>
-    <row r="2899" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2899" s="2" t="s">
+    <row r="2899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2899" s="0" t="s">
         <v>5437</v>
       </c>
-      <c r="C2899" s="2" t="s">
+      <c r="C2899" s="0" t="s">
         <v>5438</v>
       </c>
     </row>
-    <row r="2900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2900" s="0" t="s">
+    <row r="2900" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2900" s="2" t="s">
         <v>5439</v>
       </c>
-      <c r="C2900" s="0" t="s">
+      <c r="C2900" s="2" t="s">
         <v>5440</v>
       </c>
     </row>
-    <row r="2901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2901" s="0" t="s">
+    <row r="2901" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2901" s="2" t="s">
         <v>5441</v>
       </c>
-      <c r="C2901" s="0" t="s">
+      <c r="C2901" s="2" t="s">
         <v>5442</v>
       </c>
     </row>
@@ -50620,23 +50632,23 @@
         <v>5467</v>
       </c>
       <c r="C2914" s="0" t="s">
-        <v>5466</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="2915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2915" s="0" t="s">
-        <v>5468</v>
+        <v>5469</v>
       </c>
       <c r="C2915" s="0" t="s">
-        <v>5469</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="2916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2916" s="0" t="s">
+        <v>5471</v>
+      </c>
+      <c r="C2916" s="0" t="s">
         <v>5470</v>
-      </c>
-      <c r="C2916" s="0" t="s">
-        <v>5471</v>
       </c>
     </row>
     <row r="2917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50652,23 +50664,23 @@
         <v>5474</v>
       </c>
       <c r="C2918" s="0" t="s">
-        <v>5315</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="2919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2919" s="0" t="s">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="C2919" s="0" t="s">
-        <v>5476</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="2920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2920" s="0" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="C2920" s="0" t="s">
-        <v>5478</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="2921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50780,20 +50792,20 @@
         <v>5505</v>
       </c>
       <c r="C2934" s="0" t="s">
-        <v>5505</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="2935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2935" s="0" t="s">
-        <v>5506</v>
+        <v>5507</v>
       </c>
       <c r="C2935" s="0" t="s">
-        <v>5507</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="2936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2936" s="0" t="s">
-        <v>5508</v>
+        <v>5509</v>
       </c>
       <c r="C2936" s="0" t="s">
         <v>5509</v>
@@ -50812,36 +50824,36 @@
         <v>5512</v>
       </c>
       <c r="C2938" s="0" t="s">
-        <v>5512</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="2939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2939" s="0" t="s">
-        <v>5513</v>
+        <v>5514</v>
       </c>
       <c r="C2939" s="0" t="s">
-        <v>5513</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="2940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2940" s="0" t="s">
-        <v>5514</v>
+        <v>5516</v>
       </c>
       <c r="C2940" s="0" t="s">
-        <v>5514</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="2941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2941" s="0" t="s">
-        <v>5515</v>
+        <v>5517</v>
       </c>
       <c r="C2941" s="0" t="s">
-        <v>5516</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="2942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2942" s="0" t="s">
-        <v>5517</v>
+        <v>5518</v>
       </c>
       <c r="C2942" s="0" t="s">
         <v>5518</v>
@@ -50852,39 +50864,39 @@
         <v>5519</v>
       </c>
       <c r="C2943" s="0" t="s">
-        <v>5518</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="2944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2944" s="0" t="s">
-        <v>5520</v>
+        <v>5521</v>
       </c>
       <c r="C2944" s="0" t="s">
-        <v>5521</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="2945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2945" s="0" t="s">
+        <v>5523</v>
+      </c>
+      <c r="C2945" s="0" t="s">
         <v>5522</v>
-      </c>
-      <c r="C2945" s="0" t="s">
-        <v>5521</v>
       </c>
     </row>
     <row r="2946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2946" s="0" t="s">
-        <v>5523</v>
+        <v>5524</v>
       </c>
       <c r="C2946" s="0" t="s">
-        <v>5524</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="2947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2947" s="0" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C2947" s="0" t="s">
         <v>5525</v>
-      </c>
-      <c r="C2947" s="0" t="s">
-        <v>5526</v>
       </c>
     </row>
     <row r="2948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50900,20 +50912,20 @@
         <v>5529</v>
       </c>
       <c r="C2949" s="0" t="s">
-        <v>5529</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="2950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2950" s="0" t="s">
-        <v>5530</v>
+        <v>5531</v>
       </c>
       <c r="C2950" s="0" t="s">
-        <v>5531</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="2951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2951" s="0" t="s">
-        <v>5532</v>
+        <v>5533</v>
       </c>
       <c r="C2951" s="0" t="s">
         <v>5533</v>
@@ -51276,20 +51288,20 @@
         <v>5622</v>
       </c>
       <c r="C2996" s="0" t="s">
-        <v>5622</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="2997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2997" s="0" t="s">
-        <v>5623</v>
+        <v>5624</v>
       </c>
       <c r="C2997" s="0" t="s">
-        <v>5624</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="2998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2998" s="0" t="s">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="C2998" s="0" t="s">
         <v>5626</v>
@@ -51307,20 +51319,20 @@
       <c r="B3000" s="0" t="s">
         <v>5629</v>
       </c>
+      <c r="C3000" s="0" t="s">
+        <v>5630</v>
+      </c>
     </row>
     <row r="3001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3001" s="0" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="C3001" s="0" t="s">
-        <v>5631</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="3002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3002" s="0" t="s">
-        <v>5632</v>
-      </c>
-      <c r="C3002" s="0" t="s">
         <v>5633</v>
       </c>
     </row>
@@ -51432,20 +51444,20 @@
       <c r="B3016" s="0" t="s">
         <v>5660</v>
       </c>
+      <c r="C3016" s="0" t="s">
+        <v>5661</v>
+      </c>
     </row>
     <row r="3017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3017" s="0" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="C3017" s="0" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="3018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3018" s="0" t="s">
-        <v>5663</v>
-      </c>
-      <c r="C3018" s="0" t="s">
         <v>5664</v>
       </c>
     </row>
@@ -51518,23 +51530,23 @@
         <v>5681</v>
       </c>
       <c r="C3027" s="0" t="s">
-        <v>419</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="3028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3028" s="0" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="C3028" s="0" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="3029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3029" s="0" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="C3029" s="0" t="s">
-        <v>5685</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51702,20 +51714,20 @@
         <v>5726</v>
       </c>
       <c r="C3050" s="0" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="3051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3051" s="0" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="C3051" s="0" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="3052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3052" s="0" t="s">
-        <v>5729</v>
+        <v>5730</v>
       </c>
       <c r="C3052" s="0" t="s">
         <v>5730</v>
@@ -51758,23 +51770,23 @@
         <v>5739</v>
       </c>
       <c r="C3057" s="0" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="3058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3058" s="0" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="C3058" s="0" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="3059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3059" s="0" t="s">
+        <v>5743</v>
+      </c>
+      <c r="C3059" s="0" t="s">
         <v>5742</v>
-      </c>
-      <c r="C3059" s="0" t="s">
-        <v>5743</v>
       </c>
     </row>
     <row r="3060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51902,39 +51914,39 @@
         <v>5774</v>
       </c>
       <c r="C3075" s="0" t="s">
-        <v>5771</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="3076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3076" s="0" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="C3076" s="0" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="3077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3077" s="0" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="C3077" s="0" t="s">
-        <v>3803</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="3078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3078" s="0" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="C3078" s="0" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="3079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3079" s="0" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="C3079" s="0" t="s">
-        <v>5781</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51942,28 +51954,28 @@
         <v>5782</v>
       </c>
       <c r="C3080" s="0" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="3081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3081" s="0" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="C3081" s="0" t="s">
-        <v>5783</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="3082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3082" s="0" t="s">
-        <v>5784</v>
+        <v>5786</v>
       </c>
       <c r="C3082" s="0" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="3083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3083" s="0" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="C3083" s="0" t="s">
         <v>5787</v>
@@ -52054,20 +52066,20 @@
         <v>5808</v>
       </c>
       <c r="C3094" s="0" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="3095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3095" s="0" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="C3095" s="0" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="3096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3096" s="0" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="C3096" s="0" t="s">
         <v>5812</v>
@@ -52077,20 +52089,20 @@
       <c r="B3097" s="0" t="s">
         <v>5813</v>
       </c>
+      <c r="C3097" s="0" t="s">
+        <v>5814</v>
+      </c>
     </row>
     <row r="3098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3098" s="0" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="C3098" s="0" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="3099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3099" s="0" t="s">
-        <v>5816</v>
-      </c>
-      <c r="C3099" s="0" t="s">
         <v>5817</v>
       </c>
     </row>
@@ -52118,11 +52130,11 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="3103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3103" s="2" t="s">
+    <row r="3103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3103" s="0" t="s">
         <v>5824</v>
       </c>
-      <c r="C3103" s="2" t="s">
+      <c r="C3103" s="0" t="s">
         <v>5825</v>
       </c>
     </row>
@@ -52134,11 +52146,11 @@
         <v>5827</v>
       </c>
     </row>
-    <row r="3105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3105" s="0" t="s">
+    <row r="3105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3105" s="2" t="s">
         <v>5828</v>
       </c>
-      <c r="C3105" s="0" t="s">
+      <c r="C3105" s="2" t="s">
         <v>5829</v>
       </c>
     </row>
@@ -52155,28 +52167,28 @@
         <v>5832</v>
       </c>
       <c r="C3107" s="0" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="3108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3108" s="0" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="C3108" s="0" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="3109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3109" s="0" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="C3109" s="0" t="s">
-        <v>5835</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="3110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3110" s="0" t="s">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="C3110" s="0" t="s">
         <v>5837</v>
@@ -52187,23 +52199,23 @@
         <v>5838</v>
       </c>
       <c r="C3111" s="0" t="s">
-        <v>4302</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="3112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3112" s="0" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="C3112" s="0" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="3113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3113" s="0" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="C3113" s="0" t="s">
-        <v>5842</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="3114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52323,23 +52335,23 @@
         <v>5871</v>
       </c>
       <c r="C3128" s="0" t="s">
-        <v>5870</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="3129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3129" s="0" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="C3129" s="0" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="3130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3130" s="0" t="s">
+        <v>5875</v>
+      </c>
+      <c r="C3130" s="0" t="s">
         <v>5874</v>
-      </c>
-      <c r="C3130" s="0" t="s">
-        <v>5875</v>
       </c>
     </row>
     <row r="3131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52347,23 +52359,23 @@
         <v>5876</v>
       </c>
       <c r="C3131" s="0" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="3132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3132" s="0" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="C3132" s="0" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="3133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3133" s="0" t="s">
+        <v>5880</v>
+      </c>
+      <c r="C3133" s="0" t="s">
         <v>5879</v>
-      </c>
-      <c r="C3133" s="0" t="s">
-        <v>5880</v>
       </c>
     </row>
     <row r="3134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52387,23 +52399,23 @@
         <v>5885</v>
       </c>
       <c r="C3136" s="0" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="3137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3137" s="0" t="s">
-        <v>5886</v>
+        <v>5887</v>
       </c>
       <c r="C3137" s="0" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="3138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3138" s="0" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C3138" s="0" t="s">
         <v>5888</v>
-      </c>
-      <c r="C3138" s="0" t="s">
-        <v>5889</v>
       </c>
     </row>
     <row r="3139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52570,20 +52582,20 @@
       <c r="B3159" s="0" t="s">
         <v>5930</v>
       </c>
+      <c r="C3159" s="0" t="s">
+        <v>5931</v>
+      </c>
     </row>
     <row r="3160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3160" s="0" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="C3160" s="0" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="3161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3161" s="0" t="s">
-        <v>5933</v>
-      </c>
-      <c r="C3161" s="0" t="s">
         <v>5934</v>
       </c>
     </row>
@@ -52648,20 +52660,20 @@
         <v>5949</v>
       </c>
       <c r="C3169" s="0" t="s">
-        <v>5949</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="3170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3170" s="0" t="s">
-        <v>5950</v>
+        <v>5951</v>
       </c>
       <c r="C3170" s="0" t="s">
-        <v>5951</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="3171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3171" s="0" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="C3171" s="0" t="s">
         <v>5953</v>
@@ -52735,20 +52747,20 @@
       <c r="B3180" s="0" t="s">
         <v>5970</v>
       </c>
+      <c r="C3180" s="0" t="s">
+        <v>5971</v>
+      </c>
     </row>
     <row r="3181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3181" s="0" t="s">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="C3181" s="0" t="s">
-        <v>5972</v>
-      </c>
-    </row>
-    <row r="3182" customFormat="false" ht="863.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3182" s="2" t="s">
         <v>5973</v>
       </c>
-      <c r="C3182" s="2" t="s">
+    </row>
+    <row r="3182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3182" s="0" t="s">
         <v>5974</v>
       </c>
     </row>
@@ -52760,11 +52772,11 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="3184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3184" s="0" t="s">
+    <row r="3184" customFormat="false" ht="863.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3184" s="2" t="s">
         <v>5977</v>
       </c>
-      <c r="C3184" s="0" t="s">
+      <c r="C3184" s="2" t="s">
         <v>5978</v>
       </c>
     </row>
@@ -52804,20 +52816,20 @@
       <c r="B3189" s="0" t="s">
         <v>5987</v>
       </c>
+      <c r="C3189" s="0" t="s">
+        <v>5988</v>
+      </c>
     </row>
     <row r="3190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3190" s="0" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="C3190" s="0" t="s">
-        <v>5989</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="3191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3191" s="0" t="s">
-        <v>5990</v>
-      </c>
-      <c r="C3191" s="0" t="s">
         <v>5991</v>
       </c>
     </row>
@@ -52866,23 +52878,23 @@
         <v>6002</v>
       </c>
       <c r="C3197" s="0" t="s">
-        <v>6001</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="3198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3198" s="0" t="s">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="C3198" s="0" t="s">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="3199" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3199" s="2" t="s">
         <v>6005</v>
       </c>
-      <c r="C3199" s="2" t="s">
+    </row>
+    <row r="3199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3199" s="0" t="s">
         <v>6006</v>
+      </c>
+      <c r="C3199" s="0" t="s">
+        <v>6005</v>
       </c>
     </row>
     <row r="3200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52893,11 +52905,11 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="3201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3201" s="0" t="s">
+    <row r="3201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3201" s="2" t="s">
         <v>6009</v>
       </c>
-      <c r="C3201" s="0" t="s">
+      <c r="C3201" s="2" t="s">
         <v>6010</v>
       </c>
     </row>
@@ -53025,20 +53037,20 @@
       <c r="B3217" s="0" t="s">
         <v>6041</v>
       </c>
+      <c r="C3217" s="0" t="s">
+        <v>6042</v>
+      </c>
     </row>
     <row r="3218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3218" s="0" t="s">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="C3218" s="0" t="s">
-        <v>6043</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="3219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3219" s="0" t="s">
-        <v>6044</v>
-      </c>
-      <c r="C3219" s="0" t="s">
         <v>6045</v>
       </c>
     </row>
@@ -53071,20 +53083,20 @@
         <v>6052</v>
       </c>
       <c r="C3223" s="0" t="s">
-        <v>6052</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="3224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3224" s="0" t="s">
-        <v>6053</v>
+        <v>6054</v>
       </c>
       <c r="C3224" s="0" t="s">
-        <v>6054</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="3225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3225" s="0" t="s">
-        <v>6055</v>
+        <v>6056</v>
       </c>
       <c r="C3225" s="0" t="s">
         <v>6056</v>
@@ -53126,20 +53138,20 @@
       <c r="B3230" s="0" t="s">
         <v>6065</v>
       </c>
+      <c r="C3230" s="0" t="s">
+        <v>6066</v>
+      </c>
     </row>
     <row r="3231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3231" s="0" t="s">
-        <v>6066</v>
+        <v>6067</v>
       </c>
       <c r="C3231" s="0" t="s">
-        <v>6067</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="3232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3232" s="0" t="s">
-        <v>6068</v>
-      </c>
-      <c r="C3232" s="0" t="s">
         <v>6069</v>
       </c>
     </row>
@@ -53193,23 +53205,23 @@
     </row>
     <row r="3239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3239" s="0" t="s">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="C3239" s="0" t="s">
-        <v>6081</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="3240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3240" s="0" t="s">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="C3240" s="0" t="s">
-        <v>6083</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="3241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3241" s="0" t="s">
-        <v>6084</v>
+        <v>6085</v>
       </c>
       <c r="C3241" s="0" t="s">
         <v>6085</v>
@@ -53259,20 +53271,20 @@
       <c r="B3247" s="0" t="s">
         <v>6096</v>
       </c>
+      <c r="C3247" s="0" t="s">
+        <v>6097</v>
+      </c>
     </row>
     <row r="3248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3248" s="0" t="s">
-        <v>6097</v>
+        <v>6098</v>
       </c>
       <c r="C3248" s="0" t="s">
-        <v>6098</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="3249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3249" s="0" t="s">
-        <v>6099</v>
-      </c>
-      <c r="C3249" s="0" t="s">
         <v>6100</v>
       </c>
     </row>
@@ -53320,20 +53332,20 @@
       <c r="B3255" s="0" t="s">
         <v>6111</v>
       </c>
+      <c r="C3255" s="0" t="s">
+        <v>6112</v>
+      </c>
     </row>
     <row r="3256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3256" s="0" t="s">
-        <v>6112</v>
+        <v>6113</v>
       </c>
       <c r="C3256" s="0" t="s">
-        <v>6113</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="3257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3257" s="0" t="s">
-        <v>6114</v>
-      </c>
-      <c r="C3257" s="0" t="s">
         <v>6115</v>
       </c>
     </row>
@@ -53406,84 +53418,84 @@
         <v>6132</v>
       </c>
       <c r="C3266" s="0" t="s">
-        <v>6131</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="3267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3267" s="0" t="s">
-        <v>6133</v>
+        <v>6134</v>
       </c>
       <c r="C3267" s="0" t="s">
-        <v>6134</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="3268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3268" s="0" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C3268" s="0" t="s">
         <v>6135</v>
-      </c>
-      <c r="C3268" s="0" t="s">
-        <v>6134</v>
       </c>
     </row>
     <row r="3269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3269" s="0" t="s">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="C3269" s="0" t="s">
-        <v>4512</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="3270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3270" s="0" t="s">
-        <v>6137</v>
+        <v>6139</v>
       </c>
       <c r="C3270" s="0" t="s">
-        <v>4512</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="3271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3271" s="0" t="s">
-        <v>6138</v>
+        <v>6140</v>
       </c>
       <c r="C3271" s="0" t="s">
-        <v>6139</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="3272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3272" s="0" t="s">
-        <v>6140</v>
+        <v>6141</v>
       </c>
       <c r="C3272" s="0" t="s">
-        <v>6139</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="3273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3273" s="0" t="s">
-        <v>6141</v>
+        <v>6142</v>
       </c>
       <c r="C3273" s="0" t="s">
-        <v>6142</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="3274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3274" s="0" t="s">
+        <v>6144</v>
+      </c>
+      <c r="C3274" s="0" t="s">
         <v>6143</v>
-      </c>
-      <c r="C3274" s="0" t="s">
-        <v>6142</v>
       </c>
     </row>
     <row r="3275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3275" s="0" t="s">
-        <v>6144</v>
+        <v>6145</v>
       </c>
       <c r="C3275" s="0" t="s">
-        <v>6142</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="3276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3276" s="0" t="s">
-        <v>6145</v>
+        <v>6147</v>
       </c>
       <c r="C3276" s="0" t="s">
         <v>6146</v>
@@ -53491,26 +53503,26 @@
     </row>
     <row r="3277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3277" s="0" t="s">
-        <v>6147</v>
+        <v>6148</v>
       </c>
       <c r="C3277" s="0" t="s">
-        <v>829</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="3278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3278" s="0" t="s">
-        <v>6148</v>
+        <v>6149</v>
       </c>
       <c r="C3278" s="0" t="s">
-        <v>6149</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="3279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3279" s="0" t="s">
-        <v>6150</v>
+        <v>6151</v>
       </c>
       <c r="C3279" s="0" t="s">
-        <v>6151</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53558,23 +53570,23 @@
         <v>6162</v>
       </c>
       <c r="C3285" s="0" t="s">
-        <v>6161</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="3286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3286" s="0" t="s">
-        <v>6163</v>
+        <v>6164</v>
       </c>
       <c r="C3286" s="0" t="s">
-        <v>6164</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="3287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3287" s="0" t="s">
+        <v>6166</v>
+      </c>
+      <c r="C3287" s="0" t="s">
         <v>6165</v>
-      </c>
-      <c r="C3287" s="0" t="s">
-        <v>6166</v>
       </c>
     </row>
     <row r="3288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53710,23 +53722,23 @@
         <v>6199</v>
       </c>
       <c r="C3304" s="0" t="s">
-        <v>623</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="3305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3305" s="0" t="s">
-        <v>6200</v>
+        <v>6201</v>
       </c>
       <c r="C3305" s="0" t="s">
-        <v>6201</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="3306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3306" s="0" t="s">
-        <v>6202</v>
+        <v>6203</v>
       </c>
       <c r="C3306" s="0" t="s">
-        <v>6203</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53782,20 +53794,20 @@
         <v>6216</v>
       </c>
       <c r="C3313" s="0" t="s">
-        <v>6216</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="3314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3314" s="0" t="s">
-        <v>6217</v>
+        <v>6218</v>
       </c>
       <c r="C3314" s="0" t="s">
-        <v>6218</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="3315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3315" s="0" t="s">
-        <v>6219</v>
+        <v>6220</v>
       </c>
       <c r="C3315" s="0" t="s">
         <v>6220</v>
@@ -53838,23 +53850,23 @@
         <v>6229</v>
       </c>
       <c r="C3320" s="0" t="s">
-        <v>6228</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="3321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3321" s="0" t="s">
-        <v>6230</v>
+        <v>6231</v>
       </c>
       <c r="C3321" s="0" t="s">
-        <v>6231</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="3322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3322" s="0" t="s">
+        <v>6233</v>
+      </c>
+      <c r="C3322" s="0" t="s">
         <v>6232</v>
-      </c>
-      <c r="C3322" s="0" t="s">
-        <v>6233</v>
       </c>
     </row>
     <row r="3323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53870,43 +53882,43 @@
         <v>6236</v>
       </c>
       <c r="C3324" s="0" t="s">
-        <v>6216</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="3325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3325" s="0" t="s">
-        <v>6237</v>
+        <v>6238</v>
       </c>
       <c r="C3325" s="0" t="s">
-        <v>6238</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="3326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3326" s="0" t="s">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="C3326" s="0" t="s">
-        <v>6240</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="3327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3327" s="0" t="s">
         <v>6241</v>
       </c>
+      <c r="C3327" s="0" t="s">
+        <v>6242</v>
+      </c>
     </row>
     <row r="3328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3328" s="0" t="s">
-        <v>6242</v>
+        <v>6243</v>
       </c>
       <c r="C3328" s="0" t="s">
-        <v>6243</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="3329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3329" s="0" t="s">
-        <v>6244</v>
-      </c>
-      <c r="C3329" s="0" t="s">
         <v>6245</v>
       </c>
     </row>
@@ -54075,23 +54087,23 @@
         <v>6286</v>
       </c>
       <c r="C3350" s="0" t="s">
-        <v>6285</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="3351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3351" s="0" t="s">
-        <v>6287</v>
+        <v>6288</v>
       </c>
       <c r="C3351" s="0" t="s">
-        <v>6288</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="3352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3352" s="0" t="s">
+        <v>6290</v>
+      </c>
+      <c r="C3352" s="0" t="s">
         <v>6289</v>
-      </c>
-      <c r="C3352" s="0" t="s">
-        <v>6290</v>
       </c>
     </row>
     <row r="3353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54115,17 +54127,20 @@
         <v>6295</v>
       </c>
       <c r="C3355" s="0" t="s">
-        <v>6294</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="3356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3356" s="0" t="s">
-        <v>6296</v>
+        <v>6297</v>
+      </c>
+      <c r="C3356" s="0" t="s">
+        <v>6298</v>
       </c>
     </row>
     <row r="3357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3357" s="0" t="s">
-        <v>6297</v>
+        <v>6299</v>
       </c>
       <c r="C3357" s="0" t="s">
         <v>6298</v>
@@ -54133,9 +54148,6 @@
     </row>
     <row r="3358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3358" s="0" t="s">
-        <v>6299</v>
-      </c>
-      <c r="C3358" s="0" t="s">
         <v>6300</v>
       </c>
     </row>
@@ -54183,7 +54195,7 @@
       <c r="B3364" s="0" t="s">
         <v>6311</v>
       </c>
-      <c r="C3364" s="1" t="s">
+      <c r="C3364" s="0" t="s">
         <v>6312</v>
       </c>
     </row>
@@ -54199,7 +54211,7 @@
       <c r="B3366" s="0" t="s">
         <v>6315</v>
       </c>
-      <c r="C3366" s="0" t="s">
+      <c r="C3366" s="1" t="s">
         <v>6316</v>
       </c>
     </row>
@@ -54224,23 +54236,23 @@
         <v>6321</v>
       </c>
       <c r="C3369" s="0" t="s">
-        <v>6320</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="3370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3370" s="0" t="s">
-        <v>6322</v>
+        <v>6323</v>
       </c>
       <c r="C3370" s="0" t="s">
-        <v>6323</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="3371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3371" s="0" t="s">
+        <v>6325</v>
+      </c>
+      <c r="C3371" s="0" t="s">
         <v>6324</v>
-      </c>
-      <c r="C3371" s="0" t="s">
-        <v>6325</v>
       </c>
     </row>
     <row r="3372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54413,18 +54425,18 @@
     </row>
     <row r="3393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3393" s="0" t="s">
-        <v>6366</v>
+        <v>6368</v>
       </c>
       <c r="C3393" s="0" t="s">
-        <v>6367</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="3394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3394" s="0" t="s">
-        <v>6368</v>
+        <v>6370</v>
       </c>
       <c r="C3394" s="0" t="s">
-        <v>6369</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="3395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54552,30 +54564,30 @@
         <v>6400</v>
       </c>
       <c r="C3410" s="0" t="s">
-        <v>6399</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="3411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3411" s="0" t="s">
-        <v>6401</v>
-      </c>
-      <c r="C3411" s="1" t="s">
         <v>6402</v>
+      </c>
+      <c r="C3411" s="0" t="s">
+        <v>6403</v>
       </c>
     </row>
     <row r="3412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3412" s="0" t="s">
+        <v>6404</v>
+      </c>
+      <c r="C3412" s="0" t="s">
         <v>6403</v>
-      </c>
-      <c r="C3412" s="0" t="s">
-        <v>6404</v>
       </c>
     </row>
     <row r="3413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3413" s="0" t="s">
         <v>6405</v>
       </c>
-      <c r="C3413" s="0" t="s">
+      <c r="C3413" s="1" t="s">
         <v>6406</v>
       </c>
     </row>
@@ -54765,23 +54777,23 @@
     </row>
     <row r="3437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3437" s="0" t="s">
-        <v>8</v>
+        <v>6453</v>
       </c>
       <c r="C3437" s="0" t="s">
-        <v>6453</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="3438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3438" s="0" t="s">
-        <v>6454</v>
+        <v>6455</v>
       </c>
       <c r="C3438" s="0" t="s">
-        <v>6455</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="3439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3439" s="0" t="s">
-        <v>6456</v>
+        <v>8</v>
       </c>
       <c r="C3439" s="0" t="s">
         <v>6457</v>
@@ -54839,87 +54851,87 @@
       <c r="B3446" s="0" t="s">
         <v>6470</v>
       </c>
+      <c r="C3446" s="0" t="s">
+        <v>6471</v>
+      </c>
     </row>
     <row r="3447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3447" s="0" t="s">
-        <v>6471</v>
+        <v>6472</v>
       </c>
       <c r="C3447" s="0" t="s">
-        <v>631</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="3448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3448" s="0" t="s">
-        <v>6472</v>
-      </c>
-      <c r="C3448" s="0" t="s">
-        <v>2327</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="3449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3449" s="0" t="s">
-        <v>6473</v>
+        <v>6475</v>
       </c>
       <c r="C3449" s="0" t="s">
-        <v>4182</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3450" s="0" t="s">
-        <v>6474</v>
+        <v>6476</v>
       </c>
       <c r="C3450" s="0" t="s">
-        <v>688</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="3451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3451" s="0" t="s">
-        <v>6475</v>
+        <v>6477</v>
       </c>
       <c r="C3451" s="0" t="s">
-        <v>6476</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="3452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3452" s="0" t="s">
-        <v>6477</v>
+        <v>6478</v>
       </c>
       <c r="C3452" s="0" t="s">
-        <v>6478</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3453" s="0" t="s">
         <v>6479</v>
       </c>
+      <c r="C3453" s="0" t="s">
+        <v>6480</v>
+      </c>
     </row>
     <row r="3454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3454" s="0" t="s">
-        <v>6480</v>
+        <v>6481</v>
       </c>
       <c r="C3454" s="0" t="s">
-        <v>6481</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="3455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3455" s="0" t="s">
-        <v>6482</v>
-      </c>
-      <c r="C3455" s="0" t="s">
-        <v>6482</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="3456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3456" s="0" t="s">
-        <v>6483</v>
+        <v>6484</v>
       </c>
       <c r="C3456" s="0" t="s">
-        <v>6484</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="3457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3457" s="0" t="s">
-        <v>6485</v>
+        <v>6486</v>
       </c>
       <c r="C3457" s="0" t="s">
         <v>6486</v>
@@ -54962,23 +54974,23 @@
         <v>6495</v>
       </c>
       <c r="C3462" s="0" t="s">
-        <v>4471</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="3463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3463" s="0" t="s">
-        <v>6496</v>
+        <v>6497</v>
       </c>
       <c r="C3463" s="0" t="s">
-        <v>6497</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="3464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3464" s="0" t="s">
-        <v>6498</v>
+        <v>6499</v>
       </c>
       <c r="C3464" s="0" t="s">
-        <v>6499</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="3465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55177,20 +55189,20 @@
       <c r="B3489" s="0" t="s">
         <v>6548</v>
       </c>
+      <c r="C3489" s="0" t="s">
+        <v>6549</v>
+      </c>
     </row>
     <row r="3490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3490" s="0" t="s">
-        <v>6549</v>
+        <v>6550</v>
       </c>
       <c r="C3490" s="0" t="s">
-        <v>6550</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="3491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3491" s="0" t="s">
-        <v>6551</v>
-      </c>
-      <c r="C3491" s="0" t="s">
         <v>6552</v>
       </c>
     </row>
@@ -55231,23 +55243,23 @@
         <v>6561</v>
       </c>
       <c r="C3496" s="0" t="s">
-        <v>6560</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="3497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3497" s="0" t="s">
-        <v>6562</v>
+        <v>6563</v>
       </c>
       <c r="C3497" s="0" t="s">
-        <v>6563</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="3498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3498" s="0" t="s">
+        <v>6565</v>
+      </c>
+      <c r="C3498" s="0" t="s">
         <v>6564</v>
-      </c>
-      <c r="C3498" s="0" t="s">
-        <v>6565</v>
       </c>
     </row>
     <row r="3499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55335,39 +55347,39 @@
         <v>6586</v>
       </c>
       <c r="C3509" s="0" t="s">
-        <v>6556</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="3510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3510" s="0" t="s">
-        <v>6587</v>
+        <v>6588</v>
       </c>
       <c r="C3510" s="0" t="s">
-        <v>6560</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="3511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3511" s="0" t="s">
-        <v>6588</v>
+        <v>6590</v>
       </c>
       <c r="C3511" s="0" t="s">
-        <v>6563</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="3512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3512" s="0" t="s">
-        <v>6589</v>
+        <v>6591</v>
       </c>
       <c r="C3512" s="0" t="s">
-        <v>6590</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="3513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3513" s="0" t="s">
-        <v>6591</v>
+        <v>6592</v>
       </c>
       <c r="C3513" s="0" t="s">
-        <v>6592</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="3514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55391,35 +55403,35 @@
         <v>6597</v>
       </c>
       <c r="C3516" s="0" t="s">
-        <v>6597</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="3517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3517" s="0" t="s">
-        <v>6598</v>
+        <v>6599</v>
       </c>
       <c r="C3517" s="0" t="s">
-        <v>6598</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="3518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3518" s="0" t="s">
-        <v>6599</v>
+        <v>6601</v>
+      </c>
+      <c r="C3518" s="0" t="s">
+        <v>6601</v>
       </c>
     </row>
     <row r="3519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3519" s="0" t="s">
-        <v>6600</v>
+        <v>6602</v>
       </c>
       <c r="C3519" s="0" t="s">
-        <v>6601</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="3520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3520" s="0" t="s">
-        <v>6602</v>
-      </c>
-      <c r="C3520" s="0" t="s">
         <v>6603</v>
       </c>
     </row>
@@ -55632,7 +55644,7 @@
       </c>
     </row>
     <row r="3547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3547" s="1" t="s">
+      <c r="B3547" s="0" t="s">
         <v>6656</v>
       </c>
       <c r="C3547" s="0" t="s">
@@ -55648,7 +55660,7 @@
       </c>
     </row>
     <row r="3549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3549" s="0" t="s">
+      <c r="B3549" s="1" t="s">
         <v>6660</v>
       </c>
       <c r="C3549" s="0" t="s">
@@ -55668,23 +55680,23 @@
         <v>6664</v>
       </c>
       <c r="C3551" s="0" t="s">
-        <v>6663</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="3552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3552" s="0" t="s">
-        <v>6665</v>
+        <v>6666</v>
       </c>
       <c r="C3552" s="0" t="s">
-        <v>6666</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="3553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3553" s="0" t="s">
+        <v>6668</v>
+      </c>
+      <c r="C3553" s="0" t="s">
         <v>6667</v>
-      </c>
-      <c r="C3553" s="0" t="s">
-        <v>6668</v>
       </c>
     </row>
     <row r="3554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55759,11 +55771,11 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="3563" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3563" s="2" t="s">
+    <row r="3563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3563" s="0" t="s">
         <v>6687</v>
       </c>
-      <c r="C3563" s="2" t="s">
+      <c r="C3563" s="0" t="s">
         <v>6688</v>
       </c>
     </row>
@@ -55791,11 +55803,11 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="3567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3567" s="0" t="s">
+    <row r="3567" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3567" s="2" t="s">
         <v>6695</v>
       </c>
-      <c r="C3567" s="0" t="s">
+      <c r="C3567" s="2" t="s">
         <v>6696</v>
       </c>
     </row>
@@ -55932,20 +55944,20 @@
         <v>6729</v>
       </c>
       <c r="C3584" s="0" t="s">
-        <v>6729</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="3585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3585" s="0" t="s">
-        <v>6730</v>
+        <v>6731</v>
       </c>
       <c r="C3585" s="0" t="s">
-        <v>6731</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="3586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3586" s="0" t="s">
-        <v>6732</v>
+        <v>6733</v>
       </c>
       <c r="C3586" s="0" t="s">
         <v>6733</v>
@@ -56060,23 +56072,23 @@
         <v>6760</v>
       </c>
       <c r="C3600" s="0" t="s">
-        <v>6759</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="3601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3601" s="0" t="s">
-        <v>6761</v>
+        <v>6762</v>
       </c>
       <c r="C3601" s="0" t="s">
-        <v>6762</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="3602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3602" s="0" t="s">
+        <v>6764</v>
+      </c>
+      <c r="C3602" s="0" t="s">
         <v>6763</v>
-      </c>
-      <c r="C3602" s="0" t="s">
-        <v>6764</v>
       </c>
     </row>
     <row r="3603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56196,20 +56208,20 @@
         <v>6793</v>
       </c>
       <c r="C3617" s="0" t="s">
-        <v>6793</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="3618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3618" s="0" t="s">
-        <v>6794</v>
+        <v>6795</v>
       </c>
       <c r="C3618" s="0" t="s">
-        <v>6795</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="3619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3619" s="0" t="s">
-        <v>6796</v>
+        <v>6797</v>
       </c>
       <c r="C3619" s="0" t="s">
         <v>6797</v>
@@ -56283,20 +56295,20 @@
       <c r="B3628" s="0" t="s">
         <v>6814</v>
       </c>
+      <c r="C3628" s="0" t="s">
+        <v>6815</v>
+      </c>
     </row>
     <row r="3629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3629" s="0" t="s">
-        <v>6815</v>
+        <v>6816</v>
       </c>
       <c r="C3629" s="0" t="s">
-        <v>6816</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="3630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3630" s="0" t="s">
-        <v>6817</v>
-      </c>
-      <c r="C3630" s="0" t="s">
         <v>6818</v>
       </c>
     </row>
@@ -56337,28 +56349,28 @@
         <v>6827</v>
       </c>
       <c r="C3635" s="0" t="s">
-        <v>2334</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="3636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3636" s="0" t="s">
-        <v>6828</v>
+        <v>6829</v>
       </c>
       <c r="C3636" s="0" t="s">
-        <v>6828</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="3637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3637" s="0" t="s">
-        <v>6829</v>
+        <v>6831</v>
       </c>
       <c r="C3637" s="0" t="s">
-        <v>6830</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="3638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3638" s="0" t="s">
-        <v>6831</v>
+        <v>6832</v>
       </c>
       <c r="C3638" s="0" t="s">
         <v>6832</v>
@@ -56369,39 +56381,39 @@
         <v>6833</v>
       </c>
       <c r="C3639" s="0" t="s">
-        <v>6833</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="3640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3640" s="0" t="s">
-        <v>6834</v>
+        <v>6835</v>
       </c>
       <c r="C3640" s="0" t="s">
-        <v>6835</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="3641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3641" s="0" t="s">
-        <v>6836</v>
+        <v>6837</v>
       </c>
       <c r="C3641" s="0" t="s">
-        <v>6835</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="3642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3642" s="0" t="s">
-        <v>6837</v>
+        <v>6838</v>
       </c>
       <c r="C3642" s="0" t="s">
-        <v>6838</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="3643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3643" s="0" t="s">
+        <v>6840</v>
+      </c>
+      <c r="C3643" s="0" t="s">
         <v>6839</v>
-      </c>
-      <c r="C3643" s="0" t="s">
-        <v>6840</v>
       </c>
     </row>
     <row r="3644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56545,23 +56557,23 @@
         <v>6875</v>
       </c>
       <c r="C3661" s="0" t="s">
-        <v>2709</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="3662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3662" s="0" t="s">
-        <v>6876</v>
+        <v>6877</v>
       </c>
       <c r="C3662" s="0" t="s">
-        <v>6877</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="3663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3663" s="0" t="s">
-        <v>6878</v>
+        <v>6879</v>
       </c>
       <c r="C3663" s="0" t="s">
-        <v>6879</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="3664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56702,31 +56714,31 @@
     </row>
     <row r="3681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3681" s="0" t="s">
-        <v>24</v>
+        <v>6914</v>
       </c>
       <c r="C3681" s="0" t="s">
-        <v>6914</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="3682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3682" s="0" t="s">
-        <v>6915</v>
+        <v>6916</v>
       </c>
       <c r="C3682" s="0" t="s">
-        <v>6915</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="3683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3683" s="0" t="s">
-        <v>6916</v>
+        <v>24</v>
       </c>
       <c r="C3683" s="0" t="s">
-        <v>6917</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="3684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3684" s="0" t="s">
-        <v>6918</v>
+        <v>6919</v>
       </c>
       <c r="C3684" s="0" t="s">
         <v>6919</v>
@@ -56761,23 +56773,23 @@
         <v>6926</v>
       </c>
       <c r="C3688" s="0" t="s">
-        <v>6925</v>
+        <v>6927</v>
       </c>
     </row>
     <row r="3689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3689" s="0" t="s">
-        <v>6927</v>
+        <v>6928</v>
       </c>
       <c r="C3689" s="0" t="s">
-        <v>6928</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="3690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3690" s="0" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C3690" s="0" t="s">
         <v>6929</v>
-      </c>
-      <c r="C3690" s="0" t="s">
-        <v>6930</v>
       </c>
     </row>
     <row r="3691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56857,23 +56869,23 @@
         <v>6949</v>
       </c>
       <c r="C3700" s="0" t="s">
-        <v>4927</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="3701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3701" s="0" t="s">
-        <v>6950</v>
+        <v>6951</v>
       </c>
       <c r="C3701" s="0" t="s">
-        <v>6951</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="3702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3702" s="0" t="s">
-        <v>6952</v>
+        <v>6953</v>
       </c>
       <c r="C3702" s="0" t="s">
-        <v>6953</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="3703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56905,39 +56917,39 @@
         <v>6960</v>
       </c>
       <c r="C3706" s="0" t="s">
-        <v>6960</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="3707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3707" s="0" t="s">
-        <v>6961</v>
+        <v>6962</v>
       </c>
       <c r="C3707" s="0" t="s">
-        <v>6962</v>
+        <v>6963</v>
       </c>
     </row>
     <row r="3708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3708" s="0" t="s">
-        <v>6963</v>
+        <v>6964</v>
       </c>
       <c r="C3708" s="0" t="s">
-        <v>6962</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="3709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3709" s="0" t="s">
-        <v>6964</v>
+        <v>6965</v>
       </c>
       <c r="C3709" s="0" t="s">
-        <v>6965</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="3710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3710" s="0" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C3710" s="0" t="s">
         <v>6966</v>
-      </c>
-      <c r="C3710" s="0" t="s">
-        <v>6967</v>
       </c>
     </row>
     <row r="3711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56953,20 +56965,20 @@
         <v>6970</v>
       </c>
       <c r="C3712" s="0" t="s">
-        <v>6970</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="3713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3713" s="0" t="s">
-        <v>6971</v>
+        <v>6972</v>
       </c>
       <c r="C3713" s="0" t="s">
-        <v>6972</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="3714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3714" s="0" t="s">
-        <v>6973</v>
+        <v>6974</v>
       </c>
       <c r="C3714" s="0" t="s">
         <v>6974</v>
@@ -56982,23 +56994,23 @@
     </row>
     <row r="3716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3716" s="0" t="s">
-        <v>19</v>
+        <v>6977</v>
       </c>
       <c r="C3716" s="0" t="s">
-        <v>6977</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="3717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3717" s="0" t="s">
-        <v>6978</v>
+        <v>6979</v>
       </c>
       <c r="C3717" s="0" t="s">
-        <v>6979</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="3718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3718" s="0" t="s">
-        <v>6980</v>
+        <v>19</v>
       </c>
       <c r="C3718" s="0" t="s">
         <v>6981</v>
@@ -57033,20 +57045,20 @@
         <v>6988</v>
       </c>
       <c r="C3722" s="0" t="s">
-        <v>6988</v>
+        <v>6989</v>
       </c>
     </row>
     <row r="3723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3723" s="0" t="s">
-        <v>6989</v>
+        <v>6990</v>
       </c>
       <c r="C3723" s="0" t="s">
-        <v>6990</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="3724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3724" s="0" t="s">
-        <v>6991</v>
+        <v>6992</v>
       </c>
       <c r="C3724" s="0" t="s">
         <v>6992</v>
@@ -57129,60 +57141,60 @@
         <v>7011</v>
       </c>
       <c r="C3734" s="0" t="s">
-        <v>7011</v>
+        <v>7012</v>
       </c>
     </row>
     <row r="3735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3735" s="0" t="s">
-        <v>7012</v>
+        <v>7013</v>
       </c>
       <c r="C3735" s="0" t="s">
-        <v>7012</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="3736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3736" s="0" t="s">
-        <v>7013</v>
+        <v>7015</v>
       </c>
       <c r="C3736" s="0" t="s">
-        <v>5555</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="3737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3737" s="0" t="s">
-        <v>7014</v>
+        <v>7016</v>
       </c>
       <c r="C3737" s="0" t="s">
-        <v>5561</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="3738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3738" s="0" t="s">
-        <v>7015</v>
+        <v>7017</v>
       </c>
       <c r="C3738" s="0" t="s">
-        <v>7016</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="3739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3739" s="0" t="s">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="C3739" s="0" t="s">
-        <v>7017</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="3740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3740" s="0" t="s">
-        <v>7018</v>
+        <v>7019</v>
       </c>
       <c r="C3740" s="0" t="s">
-        <v>7019</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="3741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3741" s="0" t="s">
-        <v>7020</v>
+        <v>7021</v>
       </c>
       <c r="C3741" s="0" t="s">
         <v>7021</v>
@@ -57273,23 +57285,23 @@
         <v>7042</v>
       </c>
       <c r="C3752" s="0" t="s">
-        <v>7041</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="3753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3753" s="0" t="s">
-        <v>7043</v>
+        <v>7044</v>
       </c>
       <c r="C3753" s="0" t="s">
-        <v>7044</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="3754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3754" s="0" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C3754" s="0" t="s">
         <v>7045</v>
-      </c>
-      <c r="C3754" s="0" t="s">
-        <v>7046</v>
       </c>
     </row>
     <row r="3755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57400,20 +57412,20 @@
       <c r="B3768" s="0" t="s">
         <v>7073</v>
       </c>
+      <c r="C3768" s="0" t="s">
+        <v>7074</v>
+      </c>
     </row>
     <row r="3769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3769" s="0" t="s">
-        <v>7074</v>
+        <v>7075</v>
       </c>
       <c r="C3769" s="0" t="s">
-        <v>7075</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="3770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3770" s="0" t="s">
-        <v>7076</v>
-      </c>
-      <c r="C3770" s="0" t="s">
         <v>7077</v>
       </c>
     </row>
@@ -57446,39 +57458,39 @@
         <v>7084</v>
       </c>
       <c r="C3774" s="0" t="s">
-        <v>7084</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="3775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3775" s="0" t="s">
-        <v>7085</v>
+        <v>7086</v>
       </c>
       <c r="C3775" s="0" t="s">
-        <v>7085</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="3776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3776" s="0" t="s">
-        <v>7086</v>
+        <v>7088</v>
       </c>
       <c r="C3776" s="0" t="s">
-        <v>5755</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="3777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3777" s="0" t="s">
-        <v>7087</v>
+        <v>7089</v>
       </c>
       <c r="C3777" s="0" t="s">
-        <v>7088</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="3778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3778" s="0" t="s">
-        <v>7089</v>
+        <v>7090</v>
       </c>
       <c r="C3778" s="0" t="s">
-        <v>7090</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="3779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57502,23 +57514,23 @@
         <v>7095</v>
       </c>
       <c r="C3781" s="0" t="s">
-        <v>5135</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="3782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3782" s="0" t="s">
-        <v>7096</v>
+        <v>7097</v>
       </c>
       <c r="C3782" s="0" t="s">
-        <v>7097</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="3783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3783" s="0" t="s">
-        <v>7098</v>
+        <v>7099</v>
       </c>
       <c r="C3783" s="0" t="s">
-        <v>7099</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="3784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57555,26 +57567,26 @@
     </row>
     <row r="3788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3788" s="0" t="s">
-        <v>10</v>
+        <v>7108</v>
       </c>
       <c r="C3788" s="0" t="s">
-        <v>3186</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="3789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3789" s="0" t="s">
-        <v>7108</v>
+        <v>7110</v>
       </c>
       <c r="C3789" s="0" t="s">
-        <v>7109</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="3790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3790" s="0" t="s">
-        <v>7110</v>
+        <v>10</v>
       </c>
       <c r="C3790" s="0" t="s">
-        <v>7111</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="3791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57589,20 +57601,20 @@
       <c r="B3792" s="0" t="s">
         <v>7114</v>
       </c>
+      <c r="C3792" s="0" t="s">
+        <v>7115</v>
+      </c>
     </row>
     <row r="3793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3793" s="0" t="s">
-        <v>7115</v>
+        <v>7116</v>
       </c>
       <c r="C3793" s="0" t="s">
-        <v>7116</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="3794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3794" s="0" t="s">
-        <v>7117</v>
-      </c>
-      <c r="C3794" s="0" t="s">
         <v>7118</v>
       </c>
     </row>
@@ -57611,23 +57623,23 @@
         <v>7119</v>
       </c>
       <c r="C3795" s="0" t="s">
-        <v>11</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="3796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3796" s="0" t="s">
-        <v>7120</v>
+        <v>7121</v>
       </c>
       <c r="C3796" s="0" t="s">
-        <v>7121</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="3797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3797" s="0" t="s">
-        <v>7122</v>
+        <v>7123</v>
       </c>
       <c r="C3797" s="0" t="s">
-        <v>7123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57643,35 +57655,35 @@
         <v>7126</v>
       </c>
       <c r="C3799" s="0" t="s">
-        <v>3766</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="3800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3800" s="0" t="s">
-        <v>7127</v>
+        <v>7128</v>
       </c>
       <c r="C3800" s="0" t="s">
-        <v>7128</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="3801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3801" s="0" t="s">
-        <v>7129</v>
+        <v>7130</v>
+      </c>
+      <c r="C3801" s="0" t="s">
+        <v>3768</v>
       </c>
     </row>
     <row r="3802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3802" s="0" t="s">
-        <v>7130</v>
+        <v>7131</v>
       </c>
       <c r="C3802" s="0" t="s">
-        <v>7131</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="3803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3803" s="0" t="s">
-        <v>7132</v>
-      </c>
-      <c r="C3803" s="0" t="s">
         <v>7133</v>
       </c>
     </row>
@@ -57680,23 +57692,23 @@
         <v>7134</v>
       </c>
       <c r="C3804" s="0" t="s">
-        <v>2338</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="3805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3805" s="0" t="s">
-        <v>7135</v>
+        <v>7136</v>
       </c>
       <c r="C3805" s="0" t="s">
-        <v>7136</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="3806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3806" s="0" t="s">
-        <v>7137</v>
+        <v>7138</v>
       </c>
       <c r="C3806" s="0" t="s">
-        <v>7138</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="3807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57704,20 +57716,20 @@
         <v>7139</v>
       </c>
       <c r="C3807" s="0" t="s">
-        <v>7139</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="3808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3808" s="0" t="s">
-        <v>7140</v>
+        <v>7141</v>
       </c>
       <c r="C3808" s="0" t="s">
-        <v>7141</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="3809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3809" s="0" t="s">
-        <v>7142</v>
+        <v>7143</v>
       </c>
       <c r="C3809" s="0" t="s">
         <v>7143</v>
@@ -57736,23 +57748,23 @@
         <v>7146</v>
       </c>
       <c r="C3811" s="0" t="s">
-        <v>613</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="3812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3812" s="0" t="s">
-        <v>7147</v>
+        <v>7148</v>
       </c>
       <c r="C3812" s="0" t="s">
-        <v>7148</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="3813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3813" s="0" t="s">
-        <v>7149</v>
+        <v>7150</v>
       </c>
       <c r="C3813" s="0" t="s">
-        <v>7150</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57791,41 +57803,41 @@
       <c r="B3818" s="0" t="s">
         <v>7159</v>
       </c>
+      <c r="C3818" s="0" t="s">
+        <v>7160</v>
+      </c>
     </row>
     <row r="3819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3819" s="0" t="s">
-        <v>7160</v>
+        <v>7161</v>
       </c>
       <c r="C3819" s="0" t="s">
-        <v>7161</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="3820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3820" s="0" t="s">
-        <v>7162</v>
-      </c>
-      <c r="C3820" s="0" t="s">
-        <v>7162</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="3821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3821" s="0" t="s">
-        <v>7163</v>
+        <v>7164</v>
+      </c>
+      <c r="C3821" s="0" t="s">
+        <v>7165</v>
       </c>
     </row>
     <row r="3822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3822" s="0" t="s">
-        <v>7164</v>
+        <v>7166</v>
       </c>
       <c r="C3822" s="0" t="s">
-        <v>7165</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="3823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3823" s="0" t="s">
-        <v>7166</v>
-      </c>
-      <c r="C3823" s="0" t="s">
         <v>7167</v>
       </c>
     </row>
@@ -57850,23 +57862,23 @@
         <v>7172</v>
       </c>
       <c r="C3826" s="0" t="s">
-        <v>7171</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="3827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3827" s="0" t="s">
-        <v>7173</v>
+        <v>7174</v>
       </c>
       <c r="C3827" s="0" t="s">
-        <v>7174</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="3828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3828" s="0" t="s">
+        <v>7176</v>
+      </c>
+      <c r="C3828" s="0" t="s">
         <v>7175</v>
-      </c>
-      <c r="C3828" s="0" t="s">
-        <v>7176</v>
       </c>
     </row>
     <row r="3829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57895,31 +57907,31 @@
     </row>
     <row r="3832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3832" s="0" t="s">
-        <v>21</v>
+        <v>7183</v>
       </c>
       <c r="C3832" s="0" t="s">
-        <v>7183</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="3833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3833" s="0" t="s">
-        <v>7184</v>
+        <v>7185</v>
       </c>
       <c r="C3833" s="0" t="s">
-        <v>7184</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="3834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3834" s="0" t="s">
-        <v>7185</v>
+        <v>21</v>
       </c>
       <c r="C3834" s="0" t="s">
-        <v>7186</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="3835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3835" s="0" t="s">
-        <v>7187</v>
+        <v>7188</v>
       </c>
       <c r="C3835" s="0" t="s">
         <v>7188</v>
@@ -58010,20 +58022,20 @@
         <v>7209</v>
       </c>
       <c r="C3846" s="0" t="s">
-        <v>7208</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="3847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3847" s="0" t="s">
-        <v>7210</v>
+        <v>7211</v>
       </c>
       <c r="C3847" s="0" t="s">
-        <v>7210</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="3848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3848" s="0" t="s">
-        <v>7211</v>
+        <v>7213</v>
       </c>
       <c r="C3848" s="0" t="s">
         <v>7212</v>
@@ -58031,7 +58043,7 @@
     </row>
     <row r="3849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3849" s="0" t="s">
-        <v>7213</v>
+        <v>7214</v>
       </c>
       <c r="C3849" s="0" t="s">
         <v>7214</v>
@@ -58210,20 +58222,20 @@
         <v>7257</v>
       </c>
       <c r="C3871" s="0" t="s">
-        <v>7257</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="3872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3872" s="0" t="s">
-        <v>7258</v>
+        <v>7259</v>
       </c>
       <c r="C3872" s="0" t="s">
-        <v>7259</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="3873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3873" s="0" t="s">
-        <v>7260</v>
+        <v>7261</v>
       </c>
       <c r="C3873" s="0" t="s">
         <v>7261</v>
@@ -58250,20 +58262,20 @@
         <v>7266</v>
       </c>
       <c r="C3876" s="0" t="s">
-        <v>7266</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="3877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3877" s="0" t="s">
-        <v>7267</v>
+        <v>7268</v>
       </c>
       <c r="C3877" s="0" t="s">
-        <v>7268</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="3878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3878" s="0" t="s">
-        <v>7269</v>
+        <v>7270</v>
       </c>
       <c r="C3878" s="0" t="s">
         <v>7270</v>
@@ -58274,20 +58286,20 @@
         <v>7271</v>
       </c>
       <c r="C3879" s="0" t="s">
-        <v>7271</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="3880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3880" s="0" t="s">
-        <v>7272</v>
+        <v>7273</v>
       </c>
       <c r="C3880" s="0" t="s">
-        <v>7273</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="3881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3881" s="0" t="s">
-        <v>7274</v>
+        <v>7275</v>
       </c>
       <c r="C3881" s="0" t="s">
         <v>7275</v>
@@ -58394,23 +58406,23 @@
         <v>7300</v>
       </c>
       <c r="C3894" s="0" t="s">
-        <v>4245</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="3895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3895" s="0" t="s">
-        <v>7301</v>
+        <v>7302</v>
       </c>
       <c r="C3895" s="0" t="s">
-        <v>7302</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="3896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3896" s="0" t="s">
-        <v>7303</v>
+        <v>7304</v>
       </c>
       <c r="C3896" s="0" t="s">
-        <v>7304</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="3897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58433,20 +58445,20 @@
       <c r="B3899" s="0" t="s">
         <v>7309</v>
       </c>
+      <c r="C3899" s="0" t="s">
+        <v>7310</v>
+      </c>
     </row>
     <row r="3900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3900" s="0" t="s">
-        <v>7310</v>
+        <v>7311</v>
       </c>
       <c r="C3900" s="0" t="s">
-        <v>7311</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="3901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3901" s="0" t="s">
-        <v>7312</v>
-      </c>
-      <c r="C3901" s="0" t="s">
         <v>7313</v>
       </c>
     </row>
@@ -58471,23 +58483,23 @@
         <v>7318</v>
       </c>
       <c r="C3904" s="0" t="s">
-        <v>7317</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="3905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3905" s="0" t="s">
-        <v>7319</v>
+        <v>7320</v>
       </c>
       <c r="C3905" s="0" t="s">
-        <v>7320</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="3906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3906" s="0" t="s">
+        <v>7322</v>
+      </c>
+      <c r="C3906" s="0" t="s">
         <v>7321</v>
-      </c>
-      <c r="C3906" s="0" t="s">
-        <v>7322</v>
       </c>
     </row>
     <row r="3907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58551,23 +58563,23 @@
         <v>7337</v>
       </c>
       <c r="C3914" s="0" t="s">
-        <v>708</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="3915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3915" s="0" t="s">
-        <v>7338</v>
+        <v>7339</v>
       </c>
       <c r="C3915" s="0" t="s">
-        <v>7339</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="3916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3916" s="0" t="s">
-        <v>7340</v>
+        <v>7341</v>
       </c>
       <c r="C3916" s="0" t="s">
-        <v>7341</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58695,60 +58707,60 @@
         <v>7372</v>
       </c>
       <c r="C3932" s="0" t="s">
-        <v>775</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="3933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3933" s="0" t="s">
-        <v>7373</v>
+        <v>7374</v>
       </c>
       <c r="C3933" s="0" t="s">
-        <v>17</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="3934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3934" s="0" t="s">
-        <v>7374</v>
+        <v>7376</v>
       </c>
       <c r="C3934" s="0" t="s">
-        <v>7375</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3935" s="0" t="s">
-        <v>7376</v>
+        <v>7377</v>
+      </c>
+      <c r="C3935" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3936" s="0" t="s">
-        <v>7377</v>
+        <v>7378</v>
       </c>
       <c r="C3936" s="0" t="s">
-        <v>7378</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="3937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3937" s="0" t="s">
-        <v>7379</v>
-      </c>
-      <c r="C3937" s="0" t="s">
-        <v>4282</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="3938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3938" s="0" t="s">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="C3938" s="0" t="s">
-        <v>7381</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="3939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3939" s="0" t="s">
-        <v>7382</v>
+        <v>7383</v>
       </c>
       <c r="C3939" s="0" t="s">
-        <v>7383</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="3940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58844,36 +58856,36 @@
         <v>7406</v>
       </c>
       <c r="C3951" s="0" t="s">
-        <v>4839</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="3952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3952" s="0" t="s">
-        <v>7407</v>
+        <v>7408</v>
       </c>
       <c r="C3952" s="0" t="s">
-        <v>4859</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="3953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3953" s="0" t="s">
-        <v>7408</v>
+        <v>7410</v>
       </c>
       <c r="C3953" s="0" t="s">
-        <v>7408</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="3954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3954" s="0" t="s">
-        <v>7409</v>
+        <v>7411</v>
       </c>
       <c r="C3954" s="0" t="s">
-        <v>7410</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="3955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3955" s="0" t="s">
-        <v>7411</v>
+        <v>7412</v>
       </c>
       <c r="C3955" s="0" t="s">
         <v>7412</v>
@@ -58892,20 +58904,20 @@
         <v>7415</v>
       </c>
       <c r="C3957" s="0" t="s">
-        <v>7415</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="3958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3958" s="0" t="s">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="C3958" s="0" t="s">
-        <v>7417</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="3959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3959" s="0" t="s">
-        <v>7418</v>
+        <v>7419</v>
       </c>
       <c r="C3959" s="0" t="s">
         <v>7419</v>
@@ -58916,139 +58928,139 @@
         <v>7420</v>
       </c>
       <c r="C3960" s="0" t="s">
-        <v>7420</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="3961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3961" s="0" t="s">
-        <v>7421</v>
+        <v>7422</v>
+      </c>
+      <c r="C3961" s="0" t="s">
+        <v>7423</v>
       </c>
     </row>
     <row r="3962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3962" s="0" t="s">
-        <v>7422</v>
+        <v>7424</v>
+      </c>
+      <c r="C3962" s="0" t="s">
+        <v>7424</v>
       </c>
     </row>
     <row r="3963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3963" s="0" t="s">
-        <v>7423</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="3964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3964" s="0" t="s">
-        <v>7424</v>
-      </c>
-      <c r="C3964" s="0" t="s">
-        <v>7424</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="3965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3965" s="0" t="s">
-        <v>7425</v>
-      </c>
-      <c r="C3965" s="0" t="s">
-        <v>7425</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="3966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3966" s="0" t="s">
-        <v>7426</v>
+        <v>7428</v>
       </c>
       <c r="C3966" s="0" t="s">
-        <v>7426</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="3967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3967" s="0" t="s">
-        <v>7427</v>
+        <v>7429</v>
       </c>
       <c r="C3967" s="0" t="s">
-        <v>7427</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="3968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3968" s="0" t="s">
-        <v>7428</v>
+        <v>7430</v>
       </c>
       <c r="C3968" s="0" t="s">
-        <v>7428</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="3969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3969" s="0" t="s">
-        <v>7429</v>
+        <v>7431</v>
       </c>
       <c r="C3969" s="0" t="s">
-        <v>7429</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="3970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3970" s="0" t="s">
-        <v>7430</v>
+        <v>7432</v>
       </c>
       <c r="C3970" s="0" t="s">
-        <v>7430</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="3971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3971" s="0" t="s">
-        <v>7431</v>
+        <v>7433</v>
       </c>
       <c r="C3971" s="0" t="s">
-        <v>7431</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="3972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3972" s="0" t="s">
-        <v>7432</v>
+        <v>7434</v>
       </c>
       <c r="C3972" s="0" t="s">
-        <v>7432</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="3973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3973" s="0" t="s">
-        <v>7433</v>
+        <v>7435</v>
       </c>
       <c r="C3973" s="0" t="s">
-        <v>7433</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="3974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3974" s="0" t="s">
-        <v>7434</v>
+        <v>7436</v>
       </c>
       <c r="C3974" s="0" t="s">
-        <v>7434</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="3975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3975" s="0" t="s">
-        <v>7435</v>
+        <v>7437</v>
       </c>
       <c r="C3975" s="0" t="s">
-        <v>7435</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="3976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3976" s="0" t="s">
-        <v>7436</v>
+        <v>7438</v>
       </c>
       <c r="C3976" s="0" t="s">
-        <v>7436</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="3977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3977" s="0" t="s">
-        <v>7437</v>
+        <v>7439</v>
       </c>
       <c r="C3977" s="0" t="s">
-        <v>7438</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="3978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3978" s="0" t="s">
-        <v>7439</v>
+        <v>7440</v>
       </c>
       <c r="C3978" s="0" t="s">
         <v>7440</v>
@@ -59162,20 +59174,20 @@
       <c r="B3992" s="0" t="s">
         <v>7467</v>
       </c>
+      <c r="C3992" s="0" t="s">
+        <v>7468</v>
+      </c>
     </row>
     <row r="3993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3993" s="0" t="s">
-        <v>7468</v>
+        <v>7469</v>
       </c>
       <c r="C3993" s="0" t="s">
-        <v>7469</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="3994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3994" s="0" t="s">
-        <v>7470</v>
-      </c>
-      <c r="C3994" s="0" t="s">
         <v>7471</v>
       </c>
     </row>
@@ -59307,23 +59319,23 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="4011" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4011" s="2" t="s">
+    <row r="4011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4011" s="0" t="s">
         <v>7504</v>
       </c>
-      <c r="C4011" s="2" t="s">
+      <c r="C4011" s="0" t="s">
         <v>7505</v>
       </c>
     </row>
-    <row r="4012" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4012" s="2" t="s">
+    <row r="4012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4012" s="0" t="s">
         <v>7506</v>
       </c>
-      <c r="C4012" s="2" t="s">
+      <c r="C4012" s="0" t="s">
         <v>7507</v>
       </c>
     </row>
-    <row r="4013" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4013" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4013" s="2" t="s">
         <v>7508</v>
       </c>
@@ -59331,7 +59343,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="4014" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4014" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4014" s="2" t="s">
         <v>7510</v>
       </c>
@@ -59339,19 +59351,19 @@
         <v>7511</v>
       </c>
     </row>
-    <row r="4015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4015" s="0" t="s">
+    <row r="4015" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4015" s="2" t="s">
         <v>7512</v>
       </c>
-      <c r="C4015" s="0" t="s">
+      <c r="C4015" s="2" t="s">
         <v>7513</v>
       </c>
     </row>
-    <row r="4016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4016" s="0" t="s">
+    <row r="4016" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4016" s="2" t="s">
         <v>7514</v>
       </c>
-      <c r="C4016" s="0" t="s">
+      <c r="C4016" s="2" t="s">
         <v>7515</v>
       </c>
     </row>
@@ -59387,11 +59399,11 @@
         <v>7523</v>
       </c>
     </row>
-    <row r="4021" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4021" s="2" t="s">
+    <row r="4021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4021" s="0" t="s">
         <v>7524</v>
       </c>
-      <c r="C4021" s="2" t="s">
+      <c r="C4021" s="0" t="s">
         <v>7525</v>
       </c>
     </row>
@@ -59403,11 +59415,11 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="4023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4023" s="0" t="s">
+    <row r="4023" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4023" s="2" t="s">
         <v>7528</v>
       </c>
-      <c r="C4023" s="0" t="s">
+      <c r="C4023" s="2" t="s">
         <v>7529</v>
       </c>
     </row>
@@ -59415,20 +59427,20 @@
       <c r="B4024" s="0" t="s">
         <v>7530</v>
       </c>
+      <c r="C4024" s="0" t="s">
+        <v>7531</v>
+      </c>
     </row>
     <row r="4025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4025" s="0" t="s">
-        <v>7531</v>
+        <v>7532</v>
       </c>
       <c r="C4025" s="0" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="4026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4026" s="0" t="s">
-        <v>7533</v>
-      </c>
-      <c r="C4026" s="0" t="s">
         <v>7534</v>
       </c>
     </row>
@@ -59592,24 +59604,24 @@
         <v>7574</v>
       </c>
     </row>
-    <row r="4047" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4047" s="2" t="s">
+    <row r="4047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4047" s="0" t="s">
         <v>7575</v>
+      </c>
+      <c r="C4047" s="0" t="s">
+        <v>7576</v>
       </c>
     </row>
     <row r="4048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4048" s="0" t="s">
-        <v>7576</v>
+        <v>7577</v>
       </c>
       <c r="C4048" s="0" t="s">
-        <v>7577</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="4049" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4049" s="2" t="s">
-        <v>7578</v>
-      </c>
-      <c r="C4049" s="2" t="s">
         <v>7579</v>
       </c>
     </row>
@@ -59621,11 +59633,11 @@
         <v>7581</v>
       </c>
     </row>
-    <row r="4051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4051" s="0" t="s">
+    <row r="4051" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4051" s="2" t="s">
         <v>7582</v>
       </c>
-      <c r="C4051" s="0" t="s">
+      <c r="C4051" s="2" t="s">
         <v>7583</v>
       </c>
     </row>
@@ -59633,38 +59645,38 @@
       <c r="B4052" s="0" t="s">
         <v>7584</v>
       </c>
+      <c r="C4052" s="0" t="s">
+        <v>7585</v>
+      </c>
     </row>
     <row r="4053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4053" s="0" t="s">
-        <v>7585</v>
+        <v>7586</v>
+      </c>
+      <c r="C4053" s="0" t="s">
+        <v>7587</v>
       </c>
     </row>
     <row r="4054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4054" s="0" t="s">
-        <v>7586</v>
-      </c>
-      <c r="C4054" s="0" t="s">
-        <v>7587</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="4055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4055" s="0" t="s">
-        <v>7588</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="4056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4056" s="0" t="s">
-        <v>7589</v>
+        <v>7590</v>
       </c>
       <c r="C4056" s="0" t="s">
-        <v>7590</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="4057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4057" s="0" t="s">
-        <v>7591</v>
-      </c>
-      <c r="C4057" s="0" t="s">
         <v>7592</v>
       </c>
     </row>
@@ -59688,20 +59700,20 @@
       <c r="B4060" s="0" t="s">
         <v>7597</v>
       </c>
+      <c r="C4060" s="0" t="s">
+        <v>7598</v>
+      </c>
     </row>
     <row r="4061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4061" s="0" t="s">
-        <v>7598</v>
+        <v>7599</v>
       </c>
       <c r="C4061" s="0" t="s">
-        <v>7599</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="4062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4062" s="0" t="s">
-        <v>7600</v>
-      </c>
-      <c r="C4062" s="0" t="s">
         <v>7601</v>
       </c>
     </row>
@@ -59709,20 +59721,20 @@
       <c r="B4063" s="0" t="s">
         <v>7602</v>
       </c>
+      <c r="C4063" s="0" t="s">
+        <v>7603</v>
+      </c>
     </row>
     <row r="4064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4064" s="0" t="s">
-        <v>7603</v>
+        <v>7604</v>
       </c>
       <c r="C4064" s="0" t="s">
-        <v>7604</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="4065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4065" s="0" t="s">
-        <v>7605</v>
-      </c>
-      <c r="C4065" s="0" t="s">
         <v>7606</v>
       </c>
     </row>
@@ -59854,11 +59866,11 @@
         <v>7638</v>
       </c>
     </row>
-    <row r="4082" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4082" s="2" t="s">
+    <row r="4082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4082" s="0" t="s">
         <v>7639</v>
       </c>
-      <c r="C4082" s="2" t="s">
+      <c r="C4082" s="0" t="s">
         <v>7640</v>
       </c>
     </row>
@@ -59870,11 +59882,11 @@
         <v>7642</v>
       </c>
     </row>
-    <row r="4084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4084" s="0" t="s">
+    <row r="4084" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4084" s="2" t="s">
         <v>7643</v>
       </c>
-      <c r="C4084" s="0" t="s">
+      <c r="C4084" s="2" t="s">
         <v>7644</v>
       </c>
     </row>
@@ -59894,11 +59906,11 @@
         <v>7648</v>
       </c>
     </row>
-    <row r="4087" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4087" s="2" t="s">
+    <row r="4087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4087" s="0" t="s">
         <v>7649</v>
       </c>
-      <c r="C4087" s="2" t="s">
+      <c r="C4087" s="0" t="s">
         <v>7650</v>
       </c>
     </row>
@@ -59910,69 +59922,69 @@
         <v>7652</v>
       </c>
     </row>
-    <row r="4089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4089" s="0" t="s">
+    <row r="4089" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4089" s="2" t="s">
         <v>7653</v>
       </c>
-      <c r="C4089" s="0" t="s">
+      <c r="C4089" s="2" t="s">
         <v>7654</v>
       </c>
     </row>
-    <row r="4090" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4090" s="2" t="s">
+    <row r="4090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4090" s="0" t="s">
         <v>7655</v>
       </c>
-      <c r="C4090" s="2" t="s">
+      <c r="C4090" s="0" t="s">
         <v>7656</v>
       </c>
     </row>
-    <row r="4091" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4091" s="2" t="s">
+    <row r="4091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4091" s="0" t="s">
         <v>7657</v>
       </c>
       <c r="C4091" s="0" t="s">
         <v>7658</v>
       </c>
     </row>
-    <row r="4092" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4092" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4092" s="2" t="s">
         <v>7659</v>
       </c>
+      <c r="C4092" s="2" t="s">
+        <v>7660</v>
+      </c>
     </row>
     <row r="4093" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4093" s="2" t="s">
-        <v>7660</v>
+        <v>7661</v>
       </c>
       <c r="C4093" s="0" t="s">
-        <v>7661</v>
-      </c>
-    </row>
-    <row r="4094" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="4094" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4094" s="2" t="s">
-        <v>7662</v>
-      </c>
-      <c r="C4094" s="0" t="s">
         <v>7663</v>
       </c>
     </row>
-    <row r="4095" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4095" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4095" s="2" t="s">
         <v>7664</v>
       </c>
-    </row>
-    <row r="4096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4096" s="0" t="s">
+      <c r="C4095" s="0" t="s">
         <v>7665</v>
       </c>
+    </row>
+    <row r="4096" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4096" s="2" t="s">
+        <v>7666</v>
+      </c>
       <c r="C4096" s="0" t="s">
-        <v>7666</v>
-      </c>
-    </row>
-    <row r="4097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4097" s="0" t="s">
         <v>7667</v>
       </c>
-      <c r="C4097" s="0" t="s">
+    </row>
+    <row r="4097" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4097" s="2" t="s">
         <v>7668</v>
       </c>
     </row>
@@ -60173,23 +60185,23 @@
         <v>7717</v>
       </c>
       <c r="C4122" s="0" t="s">
-        <v>7367</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="4123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4123" s="0" t="s">
-        <v>7718</v>
+        <v>7719</v>
       </c>
       <c r="C4123" s="0" t="s">
-        <v>7719</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="4124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4124" s="0" t="s">
-        <v>7720</v>
+        <v>7721</v>
       </c>
       <c r="C4124" s="0" t="s">
-        <v>7721</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="4125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60197,20 +60209,20 @@
         <v>7722</v>
       </c>
       <c r="C4125" s="0" t="s">
-        <v>7722</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="4126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4126" s="0" t="s">
-        <v>7723</v>
+        <v>7724</v>
       </c>
       <c r="C4126" s="0" t="s">
-        <v>7724</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="4127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4127" s="0" t="s">
-        <v>7725</v>
+        <v>7726</v>
       </c>
       <c r="C4127" s="0" t="s">
         <v>7726</v>
@@ -60229,23 +60241,23 @@
         <v>7729</v>
       </c>
       <c r="C4129" s="0" t="s">
-        <v>7728</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="4130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4130" s="0" t="s">
-        <v>7730</v>
+        <v>7731</v>
       </c>
       <c r="C4130" s="0" t="s">
-        <v>7731</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="4131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4131" s="0" t="s">
+        <v>7733</v>
+      </c>
+      <c r="C4131" s="0" t="s">
         <v>7732</v>
-      </c>
-      <c r="C4131" s="0" t="s">
-        <v>7733</v>
       </c>
     </row>
     <row r="4132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60261,23 +60273,23 @@
         <v>7736</v>
       </c>
       <c r="C4133" s="0" t="s">
-        <v>7735</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="4134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4134" s="0" t="s">
-        <v>7737</v>
+        <v>7738</v>
       </c>
       <c r="C4134" s="0" t="s">
-        <v>7738</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="4135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4135" s="0" t="s">
+        <v>7740</v>
+      </c>
+      <c r="C4135" s="0" t="s">
         <v>7739</v>
-      </c>
-      <c r="C4135" s="0" t="s">
-        <v>7740</v>
       </c>
     </row>
     <row r="4136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60317,44 +60329,44 @@
         <v>7749</v>
       </c>
       <c r="C4140" s="0" t="s">
-        <v>7738</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="4141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4141" s="0" t="s">
-        <v>7750</v>
+        <v>7751</v>
       </c>
       <c r="C4141" s="0" t="s">
-        <v>7750</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="4142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4142" s="0" t="s">
-        <v>7751</v>
+        <v>7753</v>
       </c>
       <c r="C4142" s="0" t="s">
-        <v>7751</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="4143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4143" s="0" t="s">
-        <v>7752</v>
+        <v>7754</v>
       </c>
       <c r="C4143" s="0" t="s">
-        <v>7752</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="4144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4144" s="0" t="s">
-        <v>7753</v>
+        <v>7755</v>
       </c>
       <c r="C4144" s="0" t="s">
-        <v>7754</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="4145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4145" s="0" t="s">
-        <v>7755</v>
+        <v>7756</v>
       </c>
       <c r="C4145" s="0" t="s">
         <v>7756</v>
@@ -60445,23 +60457,23 @@
         <v>7777</v>
       </c>
       <c r="C4156" s="0" t="s">
-        <v>1752</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="4157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4157" s="0" t="s">
-        <v>7778</v>
+        <v>7779</v>
       </c>
       <c r="C4157" s="0" t="s">
-        <v>7779</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="4158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4158" s="0" t="s">
-        <v>7780</v>
+        <v>7781</v>
       </c>
       <c r="C4158" s="0" t="s">
-        <v>7781</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60669,35 +60681,35 @@
         <v>7832</v>
       </c>
       <c r="C4184" s="0" t="s">
-        <v>7831</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="4185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4185" s="0" t="s">
-        <v>7833</v>
+        <v>7834</v>
       </c>
       <c r="C4185" s="0" t="s">
-        <v>7834</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="4186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4186" s="0" t="s">
+        <v>7836</v>
+      </c>
+      <c r="C4186" s="0" t="s">
         <v>7835</v>
       </c>
     </row>
     <row r="4187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4187" s="0" t="s">
-        <v>7836</v>
+        <v>7837</v>
       </c>
       <c r="C4187" s="0" t="s">
-        <v>7837</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="4188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4188" s="0" t="s">
-        <v>7838</v>
-      </c>
-      <c r="C4188" s="0" t="s">
         <v>7839</v>
       </c>
     </row>
@@ -60765,11 +60777,11 @@
         <v>7855</v>
       </c>
     </row>
-    <row r="4197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4197" s="2" t="s">
+    <row r="4197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4197" s="0" t="s">
         <v>7856</v>
       </c>
-      <c r="C4197" s="2" t="s">
+      <c r="C4197" s="0" t="s">
         <v>7857</v>
       </c>
     </row>
@@ -60781,11 +60793,11 @@
         <v>7859</v>
       </c>
     </row>
-    <row r="4199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4199" s="0" t="s">
+    <row r="4199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4199" s="2" t="s">
         <v>7860</v>
       </c>
-      <c r="C4199" s="0" t="s">
+      <c r="C4199" s="2" t="s">
         <v>7861</v>
       </c>
     </row>
@@ -60794,23 +60806,23 @@
         <v>7862</v>
       </c>
       <c r="C4200" s="0" t="s">
-        <v>2667</v>
+        <v>7863</v>
       </c>
     </row>
     <row r="4201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4201" s="0" t="s">
-        <v>7863</v>
+        <v>7864</v>
       </c>
       <c r="C4201" s="0" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="4202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4202" s="0" t="s">
-        <v>7865</v>
+        <v>7866</v>
       </c>
       <c r="C4202" s="0" t="s">
-        <v>7866</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60818,23 +60830,23 @@
         <v>7867</v>
       </c>
       <c r="C4203" s="0" t="s">
-        <v>4784</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="4204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4204" s="0" t="s">
-        <v>7868</v>
+        <v>7869</v>
       </c>
       <c r="C4204" s="0" t="s">
-        <v>7869</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="4205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4205" s="0" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="C4205" s="0" t="s">
-        <v>7871</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="4206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60866,30 +60878,30 @@
         <v>7878</v>
       </c>
       <c r="C4209" s="0" t="s">
-        <v>3392</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="4210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4210" s="0" t="s">
-        <v>7879</v>
-      </c>
-      <c r="C4210" s="4" t="s">
         <v>7880</v>
+      </c>
+      <c r="C4210" s="0" t="s">
+        <v>7881</v>
       </c>
     </row>
     <row r="4211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4211" s="0" t="s">
-        <v>7881</v>
+        <v>7882</v>
       </c>
       <c r="C4211" s="0" t="s">
-        <v>7882</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="4212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4212" s="0" t="s">
         <v>7883</v>
       </c>
-      <c r="C4212" s="0" t="s">
+      <c r="C4212" s="4" t="s">
         <v>7884</v>
       </c>
     </row>
@@ -60898,20 +60910,20 @@
         <v>7885</v>
       </c>
       <c r="C4213" s="0" t="s">
-        <v>7885</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="4214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4214" s="0" t="s">
-        <v>7886</v>
+        <v>7887</v>
       </c>
       <c r="C4214" s="0" t="s">
-        <v>7887</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="4215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4215" s="0" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="C4215" s="0" t="s">
         <v>7889</v>
@@ -60922,48 +60934,48 @@
         <v>7890</v>
       </c>
       <c r="C4216" s="0" t="s">
-        <v>7890</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="4217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4217" s="0" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="C4217" s="0" t="s">
-        <v>7892</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="4218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4218" s="0" t="s">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="C4218" s="0" t="s">
-        <v>7893</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="4219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4219" s="0" t="s">
-        <v>7894</v>
+        <v>7895</v>
+      </c>
+      <c r="C4219" s="0" t="s">
+        <v>7896</v>
       </c>
     </row>
     <row r="4220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4220" s="0" t="s">
-        <v>7895</v>
+        <v>7897</v>
+      </c>
+      <c r="C4220" s="0" t="s">
+        <v>7897</v>
       </c>
     </row>
     <row r="4221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4221" s="0" t="s">
-        <v>7896</v>
-      </c>
-      <c r="C4221" s="0" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="4222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4222" s="0" t="s">
-        <v>7898</v>
-      </c>
-      <c r="C4222" s="0" t="s">
         <v>7899</v>
       </c>
     </row>
@@ -60988,30 +61000,30 @@
         <v>7904</v>
       </c>
       <c r="C4225" s="0" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="4226" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4226" s="2" t="s">
         <v>7905</v>
       </c>
-      <c r="C4226" s="2" t="s">
+    </row>
+    <row r="4226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4226" s="0" t="s">
         <v>7906</v>
+      </c>
+      <c r="C4226" s="0" t="s">
+        <v>7907</v>
       </c>
     </row>
     <row r="4227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4227" s="0" t="s">
-        <v>7907</v>
+        <v>7908</v>
       </c>
       <c r="C4227" s="0" t="s">
-        <v>7908</v>
-      </c>
-    </row>
-    <row r="4228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4228" s="0" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="4228" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4228" s="2" t="s">
         <v>7909</v>
       </c>
-      <c r="C4228" s="0" t="s">
+      <c r="C4228" s="2" t="s">
         <v>7910</v>
       </c>
     </row>
@@ -61047,21 +61059,21 @@
         <v>7917</v>
       </c>
       <c r="C4232" s="0" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="4233" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4233" s="0"/>
       <c r="B4233" s="0" t="s">
-        <v>7918</v>
+        <v>7919</v>
       </c>
       <c r="C4233" s="0" t="s">
-        <v>7919</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="4234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4234" s="0" t="s">
-        <v>7920</v>
+        <v>7921</v>
       </c>
       <c r="C4234" s="0" t="s">
         <v>7921</v>
@@ -61071,20 +61083,20 @@
       <c r="B4235" s="0" t="s">
         <v>7922</v>
       </c>
+      <c r="C4235" s="0" t="s">
+        <v>7923</v>
+      </c>
     </row>
     <row r="4236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4236" s="0" t="s">
-        <v>7923</v>
+        <v>7924</v>
       </c>
       <c r="C4236" s="0" t="s">
-        <v>7924</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="4237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4237" s="0" t="s">
-        <v>7925</v>
-      </c>
-      <c r="C4237" s="0" t="s">
         <v>7926</v>
       </c>
     </row>
@@ -61149,23 +61161,23 @@
         <v>7941</v>
       </c>
       <c r="C4245" s="0" t="s">
-        <v>7940</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="4246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4246" s="0" t="s">
-        <v>7942</v>
+        <v>7943</v>
       </c>
       <c r="C4246" s="0" t="s">
-        <v>7943</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="4247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4247" s="0" t="s">
+        <v>7945</v>
+      </c>
+      <c r="C4247" s="0" t="s">
         <v>7944</v>
-      </c>
-      <c r="C4247" s="0" t="s">
-        <v>7945</v>
       </c>
     </row>
     <row r="4248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61253,23 +61265,23 @@
         <v>7966</v>
       </c>
       <c r="C4258" s="0" t="s">
-        <v>7965</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="4259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4259" s="0" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="C4259" s="0" t="s">
-        <v>7968</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="4260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4260" s="0" t="s">
+        <v>7970</v>
+      </c>
+      <c r="C4260" s="0" t="s">
         <v>7969</v>
-      </c>
-      <c r="C4260" s="0" t="s">
-        <v>7970</v>
       </c>
     </row>
     <row r="4261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61309,23 +61321,23 @@
         <v>7979</v>
       </c>
       <c r="C4265" s="0" t="s">
-        <v>7965</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="4266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4266" s="0" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="C4266" s="0" t="s">
-        <v>7981</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="4267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4267" s="0" t="s">
-        <v>7982</v>
+        <v>7983</v>
       </c>
       <c r="C4267" s="0" t="s">
-        <v>7983</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="4268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61428,37 +61440,37 @@
       <c r="B4280" s="0" t="s">
         <v>8008</v>
       </c>
+      <c r="C4280" s="0" t="s">
+        <v>8009</v>
+      </c>
     </row>
     <row r="4281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4281" s="0" t="s">
-        <v>8009</v>
+        <v>8010</v>
       </c>
       <c r="C4281" s="0" t="s">
-        <v>8010</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="4282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4282" s="0" t="s">
-        <v>8011</v>
-      </c>
-      <c r="C4282" s="0" t="s">
-        <v>775</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="4283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4283" s="0" t="s">
-        <v>8012</v>
+        <v>8013</v>
       </c>
       <c r="C4283" s="0" t="s">
-        <v>8013</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="4284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4284" s="0" t="s">
-        <v>8014</v>
+        <v>8015</v>
       </c>
       <c r="C4284" s="0" t="s">
-        <v>8015</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61618,28 +61630,28 @@
         <v>8054</v>
       </c>
       <c r="C4304" s="0" t="s">
-        <v>8054</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="4305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4305" s="0" t="s">
-        <v>8055</v>
+        <v>8056</v>
       </c>
       <c r="C4305" s="0" t="s">
-        <v>8054</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="4306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4306" s="0" t="s">
-        <v>8056</v>
+        <v>8058</v>
       </c>
       <c r="C4306" s="0" t="s">
-        <v>8056</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="4307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4307" s="0" t="s">
-        <v>8057</v>
+        <v>8059</v>
       </c>
       <c r="C4307" s="0" t="s">
         <v>8058</v>
@@ -61647,7 +61659,7 @@
     </row>
     <row r="4308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4308" s="0" t="s">
-        <v>8059</v>
+        <v>8060</v>
       </c>
       <c r="C4308" s="0" t="s">
         <v>8060</v>
@@ -61757,11 +61769,11 @@
         <v>8086</v>
       </c>
     </row>
-    <row r="4322" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4322" s="2" t="s">
+    <row r="4322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4322" s="0" t="s">
         <v>8087</v>
       </c>
-      <c r="C4322" s="2" t="s">
+      <c r="C4322" s="0" t="s">
         <v>8088</v>
       </c>
     </row>
@@ -61773,11 +61785,11 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="4324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4324" s="0" t="s">
+    <row r="4324" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4324" s="2" t="s">
         <v>8091</v>
       </c>
-      <c r="C4324" s="0" t="s">
+      <c r="C4324" s="2" t="s">
         <v>8092</v>
       </c>
     </row>
@@ -61801,20 +61813,20 @@
       <c r="B4327" s="0" t="s">
         <v>8097</v>
       </c>
+      <c r="C4327" s="0" t="s">
+        <v>8098</v>
+      </c>
     </row>
     <row r="4328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4328" s="0" t="s">
-        <v>8098</v>
+        <v>8099</v>
       </c>
       <c r="C4328" s="0" t="s">
-        <v>8099</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="4329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4329" s="0" t="s">
-        <v>8100</v>
-      </c>
-      <c r="C4329" s="0" t="s">
         <v>8101</v>
       </c>
     </row>
@@ -61870,20 +61882,20 @@
       <c r="B4336" s="0" t="s">
         <v>8114</v>
       </c>
+      <c r="C4336" s="0" t="s">
+        <v>8115</v>
+      </c>
     </row>
     <row r="4337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4337" s="0" t="s">
-        <v>8115</v>
+        <v>8116</v>
       </c>
       <c r="C4337" s="0" t="s">
-        <v>8116</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="4338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4338" s="0" t="s">
-        <v>8117</v>
-      </c>
-      <c r="C4338" s="0" t="s">
         <v>8118</v>
       </c>
     </row>
@@ -61892,23 +61904,23 @@
         <v>8119</v>
       </c>
       <c r="C4339" s="0" t="s">
-        <v>8118</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="4340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4340" s="0" t="s">
-        <v>8120</v>
+        <v>8121</v>
       </c>
       <c r="C4340" s="0" t="s">
-        <v>8121</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="4341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4341" s="0" t="s">
+        <v>8123</v>
+      </c>
+      <c r="C4341" s="0" t="s">
         <v>8122</v>
-      </c>
-      <c r="C4341" s="0" t="s">
-        <v>8123</v>
       </c>
     </row>
     <row r="4342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61955,20 +61967,20 @@
       <c r="B4347" s="0" t="s">
         <v>8134</v>
       </c>
+      <c r="C4347" s="0" t="s">
+        <v>8135</v>
+      </c>
     </row>
     <row r="4348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4348" s="0" t="s">
-        <v>8135</v>
+        <v>8136</v>
       </c>
       <c r="C4348" s="0" t="s">
-        <v>8136</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="4349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4349" s="0" t="s">
-        <v>8137</v>
-      </c>
-      <c r="C4349" s="0" t="s">
         <v>8138</v>
       </c>
     </row>
@@ -61993,20 +62005,20 @@
         <v>8143</v>
       </c>
       <c r="C4352" s="0" t="s">
-        <v>8143</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="4353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4353" s="0" t="s">
-        <v>8144</v>
+        <v>8145</v>
       </c>
       <c r="C4353" s="0" t="s">
-        <v>8145</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="4354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4354" s="0" t="s">
-        <v>8146</v>
+        <v>8147</v>
       </c>
       <c r="C4354" s="0" t="s">
         <v>8147</v>
@@ -62033,23 +62045,23 @@
         <v>8152</v>
       </c>
       <c r="C4357" s="0" t="s">
-        <v>6123</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="4358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4358" s="0" t="s">
-        <v>8153</v>
+        <v>8154</v>
       </c>
       <c r="C4358" s="0" t="s">
-        <v>8154</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="4359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4359" s="0" t="s">
-        <v>8155</v>
+        <v>8156</v>
       </c>
       <c r="C4359" s="0" t="s">
-        <v>8156</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="4360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62112,26 +62124,26 @@
       <c r="B4367" s="0" t="s">
         <v>8171</v>
       </c>
+      <c r="C4367" s="0" t="s">
+        <v>8172</v>
+      </c>
     </row>
     <row r="4368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4368" s="0" t="s">
-        <v>8172</v>
+        <v>8173</v>
       </c>
       <c r="C4368" s="0" t="s">
-        <v>8172</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="4369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4369" s="0" t="s">
-        <v>8173</v>
-      </c>
-      <c r="C4369" s="0" t="s">
-        <v>8174</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="4370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4370" s="0" t="s">
-        <v>8175</v>
+        <v>8176</v>
       </c>
       <c r="C4370" s="0" t="s">
         <v>8176</v>
@@ -62142,47 +62154,47 @@
         <v>8177</v>
       </c>
       <c r="C4371" s="0" t="s">
-        <v>7326</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="4372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4372" s="0" t="s">
-        <v>8178</v>
+        <v>8179</v>
       </c>
       <c r="C4372" s="0" t="s">
-        <v>8179</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="4373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4373" s="0" t="s">
-        <v>8180</v>
+        <v>8181</v>
       </c>
       <c r="C4373" s="0" t="s">
-        <v>7311</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="4374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4374" s="0" t="s">
-        <v>8181</v>
+        <v>8182</v>
       </c>
       <c r="C4374" s="0" t="s">
-        <v>7365</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="4375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4375" s="0" t="s">
-        <v>8182</v>
+        <v>8184</v>
       </c>
       <c r="C4375" s="0" t="s">
-        <v>8183</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="4376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4376" s="0" t="s">
-        <v>8184</v>
+        <v>8185</v>
       </c>
       <c r="C4376" s="0" t="s">
-        <v>8185</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="4377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62190,23 +62202,23 @@
         <v>8186</v>
       </c>
       <c r="C4377" s="0" t="s">
-        <v>7326</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="4378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4378" s="0" t="s">
-        <v>8187</v>
+        <v>8188</v>
       </c>
       <c r="C4378" s="0" t="s">
-        <v>8188</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="4379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4379" s="0" t="s">
-        <v>8189</v>
+        <v>8190</v>
       </c>
       <c r="C4379" s="0" t="s">
-        <v>8190</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="4380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62238,55 +62250,55 @@
         <v>8197</v>
       </c>
       <c r="C4383" s="0" t="s">
-        <v>708</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="4384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4384" s="0" t="s">
-        <v>8198</v>
+        <v>8199</v>
       </c>
       <c r="C4384" s="0" t="s">
-        <v>708</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4385" s="0" t="s">
-        <v>8199</v>
+        <v>8201</v>
       </c>
       <c r="C4385" s="0" t="s">
-        <v>8196</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4386" s="0" t="s">
-        <v>8200</v>
+        <v>8202</v>
       </c>
       <c r="C4386" s="0" t="s">
-        <v>8196</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4387" s="0" t="s">
-        <v>8201</v>
+        <v>8203</v>
       </c>
       <c r="C4387" s="0" t="s">
-        <v>8196</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4388" s="0" t="s">
-        <v>8202</v>
+        <v>8204</v>
       </c>
       <c r="C4388" s="0" t="s">
-        <v>8203</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4389" s="0" t="s">
-        <v>8204</v>
+        <v>8205</v>
       </c>
       <c r="C4389" s="0" t="s">
-        <v>8205</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="4390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62390,23 +62402,23 @@
         <v>8230</v>
       </c>
       <c r="C4402" s="0" t="s">
-        <v>708</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="4403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4403" s="0" t="s">
-        <v>8231</v>
+        <v>8232</v>
       </c>
       <c r="C4403" s="0" t="s">
-        <v>8232</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="4404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4404" s="0" t="s">
-        <v>8233</v>
+        <v>8234</v>
       </c>
       <c r="C4404" s="0" t="s">
-        <v>8234</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62414,23 +62426,23 @@
         <v>8235</v>
       </c>
       <c r="C4405" s="0" t="s">
-        <v>7204</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="4406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4406" s="0" t="s">
-        <v>8236</v>
+        <v>8237</v>
       </c>
       <c r="C4406" s="0" t="s">
-        <v>8237</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="4407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4407" s="0" t="s">
-        <v>8238</v>
+        <v>8239</v>
       </c>
       <c r="C4407" s="0" t="s">
-        <v>8239</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="4408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62470,36 +62482,36 @@
         <v>8248</v>
       </c>
       <c r="C4412" s="0" t="s">
-        <v>8248</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="4413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4413" s="0" t="s">
-        <v>8249</v>
+        <v>8250</v>
       </c>
       <c r="C4413" s="0" t="s">
-        <v>8250</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="4414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4414" s="0" t="s">
-        <v>8251</v>
+        <v>8252</v>
       </c>
       <c r="C4414" s="0" t="s">
-        <v>8251</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="4415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4415" s="0" t="s">
-        <v>8252</v>
+        <v>8253</v>
       </c>
       <c r="C4415" s="0" t="s">
-        <v>8253</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="4416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4416" s="0" t="s">
-        <v>8254</v>
+        <v>8255</v>
       </c>
       <c r="C4416" s="0" t="s">
         <v>8255</v>
@@ -62675,58 +62687,58 @@
     </row>
     <row r="4438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4438" s="0" t="s">
-        <v>20</v>
+        <v>8298</v>
       </c>
       <c r="C4438" s="0" t="s">
-        <v>20</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="4439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4439" s="0" t="s">
-        <v>8298</v>
+        <v>8300</v>
       </c>
       <c r="C4439" s="0" t="s">
-        <v>8299</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="4440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4440" s="0" t="s">
-        <v>8300</v>
+        <v>20</v>
       </c>
       <c r="C4440" s="0" t="s">
-        <v>8299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4441" s="0" t="s">
-        <v>8301</v>
+        <v>8302</v>
       </c>
       <c r="C4441" s="0" t="s">
-        <v>8302</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="4442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4442" s="0" t="s">
+        <v>8304</v>
+      </c>
+      <c r="C4442" s="0" t="s">
         <v>8303</v>
-      </c>
-      <c r="C4442" s="0" t="s">
-        <v>4149</v>
       </c>
     </row>
     <row r="4443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4443" s="0" t="s">
-        <v>8304</v>
+        <v>8305</v>
       </c>
       <c r="C4443" s="0" t="s">
-        <v>8305</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="4444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4444" s="0" t="s">
-        <v>8306</v>
+        <v>8307</v>
       </c>
       <c r="C4444" s="0" t="s">
-        <v>8307</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="4445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62774,28 +62786,28 @@
         <v>8318</v>
       </c>
       <c r="C4450" s="0" t="s">
-        <v>2307</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="4451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4451" s="0" t="s">
-        <v>8319</v>
+        <v>8320</v>
       </c>
       <c r="C4451" s="0" t="s">
-        <v>8319</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="4452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4452" s="0" t="s">
-        <v>8320</v>
+        <v>8322</v>
       </c>
       <c r="C4452" s="0" t="s">
-        <v>8321</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="4453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4453" s="0" t="s">
-        <v>8322</v>
+        <v>8323</v>
       </c>
       <c r="C4453" s="0" t="s">
         <v>8323</v>
@@ -62846,39 +62858,39 @@
         <v>8334</v>
       </c>
       <c r="C4459" s="0" t="s">
-        <v>8334</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="4460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4460" s="0" t="s">
-        <v>8335</v>
+        <v>8336</v>
       </c>
       <c r="C4460" s="0" t="s">
-        <v>8336</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="4461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4461" s="0" t="s">
-        <v>8337</v>
+        <v>8338</v>
       </c>
       <c r="C4461" s="0" t="s">
-        <v>8333</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="4462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4462" s="0" t="s">
-        <v>8338</v>
+        <v>8339</v>
       </c>
       <c r="C4462" s="0" t="s">
-        <v>8339</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="4463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4463" s="0" t="s">
-        <v>8340</v>
+        <v>8341</v>
       </c>
       <c r="C4463" s="0" t="s">
-        <v>8341</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="4464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62974,20 +62986,20 @@
         <v>8364</v>
       </c>
       <c r="C4475" s="0" t="s">
-        <v>8364</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="4476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4476" s="0" t="s">
-        <v>8365</v>
+        <v>8366</v>
       </c>
       <c r="C4476" s="0" t="s">
-        <v>8366</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="4477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4477" s="0" t="s">
-        <v>8367</v>
+        <v>8368</v>
       </c>
       <c r="C4477" s="0" t="s">
         <v>8368</v>
@@ -63046,23 +63058,23 @@
         <v>8381</v>
       </c>
       <c r="C4484" s="0" t="s">
-        <v>7801</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="4485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4485" s="0" t="s">
-        <v>8382</v>
+        <v>8383</v>
       </c>
       <c r="C4485" s="0" t="s">
-        <v>8383</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="4486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4486" s="0" t="s">
-        <v>8384</v>
+        <v>8385</v>
       </c>
       <c r="C4486" s="0" t="s">
-        <v>8385</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="4487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63102,23 +63114,23 @@
         <v>8394</v>
       </c>
       <c r="C4491" s="0" t="s">
-        <v>8393</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="4492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4492" s="0" t="s">
-        <v>8395</v>
+        <v>8396</v>
       </c>
       <c r="C4492" s="0" t="s">
-        <v>8396</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="4493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4493" s="0" t="s">
+        <v>8398</v>
+      </c>
+      <c r="C4493" s="0" t="s">
         <v>8397</v>
-      </c>
-      <c r="C4493" s="0" t="s">
-        <v>8398</v>
       </c>
     </row>
     <row r="4494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63153,11 +63165,11 @@
         <v>8406</v>
       </c>
     </row>
-    <row r="4498" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4498" s="2" t="s">
+    <row r="4498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4498" s="0" t="s">
         <v>8407</v>
       </c>
-      <c r="C4498" s="2" t="s">
+      <c r="C4498" s="0" t="s">
         <v>8408</v>
       </c>
     </row>
@@ -63169,11 +63181,11 @@
         <v>8410</v>
       </c>
     </row>
-    <row r="4500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4500" s="0" t="s">
+    <row r="4500" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4500" s="2" t="s">
         <v>8411</v>
       </c>
-      <c r="C4500" s="0" t="s">
+      <c r="C4500" s="2" t="s">
         <v>8412</v>
       </c>
     </row>
@@ -63334,31 +63346,31 @@
         <v>8451</v>
       </c>
       <c r="C4520" s="0" t="s">
-        <v>8451</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="4521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4521" s="0" t="s">
-        <v>8452</v>
+        <v>8453</v>
       </c>
       <c r="C4521" s="0" t="s">
-        <v>833</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="4522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4522" s="0" t="s">
-        <v>8453</v>
+        <v>8455</v>
       </c>
       <c r="C4522" s="0" t="s">
-        <v>8454</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="4523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4523" s="0" t="s">
-        <v>8455</v>
+        <v>8456</v>
       </c>
       <c r="C4523" s="0" t="s">
-        <v>8456</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63430,20 +63442,20 @@
         <v>8473</v>
       </c>
       <c r="C4532" s="0" t="s">
-        <v>8473</v>
+        <v>8474</v>
       </c>
     </row>
     <row r="4533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4533" s="0" t="s">
-        <v>8474</v>
+        <v>8475</v>
       </c>
       <c r="C4533" s="0" t="s">
-        <v>8475</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="4534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4534" s="0" t="s">
-        <v>8476</v>
+        <v>8477</v>
       </c>
       <c r="C4534" s="0" t="s">
         <v>8477</v>
@@ -63454,28 +63466,28 @@
         <v>8478</v>
       </c>
       <c r="C4535" s="0" t="s">
-        <v>8478</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="4536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4536" s="0" t="s">
-        <v>8479</v>
+        <v>8480</v>
       </c>
       <c r="C4536" s="0" t="s">
-        <v>8479</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="4537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4537" s="0" t="s">
-        <v>8480</v>
+        <v>8482</v>
       </c>
       <c r="C4537" s="0" t="s">
-        <v>8481</v>
+        <v>8482</v>
       </c>
     </row>
     <row r="4538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4538" s="0" t="s">
-        <v>8482</v>
+        <v>8483</v>
       </c>
       <c r="C4538" s="0" t="s">
         <v>8483</v>
@@ -63510,23 +63522,23 @@
         <v>8490</v>
       </c>
       <c r="C4542" s="0" t="s">
-        <v>2742</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="4543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4543" s="0" t="s">
-        <v>8491</v>
+        <v>8492</v>
       </c>
       <c r="C4543" s="0" t="s">
-        <v>8492</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="4544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4544" s="0" t="s">
-        <v>8493</v>
+        <v>8494</v>
       </c>
       <c r="C4544" s="0" t="s">
-        <v>8494</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="4545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63689,11 +63701,11 @@
         <v>8534</v>
       </c>
     </row>
-    <row r="4565" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4565" s="2" t="s">
+    <row r="4565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4565" s="0" t="s">
         <v>8535</v>
       </c>
-      <c r="C4565" s="2" t="s">
+      <c r="C4565" s="0" t="s">
         <v>8536</v>
       </c>
     </row>
@@ -63705,11 +63717,11 @@
         <v>8538</v>
       </c>
     </row>
-    <row r="4567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4567" s="0" t="s">
+    <row r="4567" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4567" s="2" t="s">
         <v>8539</v>
       </c>
-      <c r="C4567" s="0" t="s">
+      <c r="C4567" s="2" t="s">
         <v>8540</v>
       </c>
     </row>
@@ -63745,35 +63757,35 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="4572" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4572" s="2" t="s">
+    <row r="4572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4572" s="0" t="s">
         <v>8549</v>
       </c>
-      <c r="C4572" s="2" t="s">
+      <c r="C4572" s="0" t="s">
         <v>8550</v>
       </c>
     </row>
-    <row r="4573" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4573" s="2" t="s">
+    <row r="4573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4573" s="0" t="s">
         <v>8551</v>
       </c>
-      <c r="C4573" s="2" t="s">
+      <c r="C4573" s="0" t="s">
         <v>8552</v>
       </c>
     </row>
-    <row r="4574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4574" s="0" t="s">
+    <row r="4574" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4574" s="2" t="s">
         <v>8553</v>
       </c>
-      <c r="C4574" s="0" t="s">
+      <c r="C4574" s="2" t="s">
         <v>8554</v>
       </c>
     </row>
-    <row r="4575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4575" s="0" t="s">
+    <row r="4575" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4575" s="2" t="s">
         <v>8555</v>
       </c>
-      <c r="C4575" s="1" t="s">
+      <c r="C4575" s="2" t="s">
         <v>8556</v>
       </c>
     </row>
@@ -63789,7 +63801,7 @@
       <c r="B4577" s="0" t="s">
         <v>8559</v>
       </c>
-      <c r="C4577" s="0" t="s">
+      <c r="C4577" s="1" t="s">
         <v>8560</v>
       </c>
     </row>
@@ -63838,20 +63850,20 @@
         <v>8571</v>
       </c>
       <c r="C4583" s="0" t="s">
-        <v>8571</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="4584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4584" s="0" t="s">
-        <v>8572</v>
+        <v>8573</v>
       </c>
       <c r="C4584" s="0" t="s">
-        <v>8573</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="4585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4585" s="0" t="s">
-        <v>8574</v>
+        <v>8575</v>
       </c>
       <c r="C4585" s="0" t="s">
         <v>8575</v>
@@ -63862,36 +63874,36 @@
         <v>8576</v>
       </c>
       <c r="C4586" s="0" t="s">
-        <v>8576</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="4587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4587" s="0" t="s">
-        <v>8577</v>
+        <v>8578</v>
       </c>
       <c r="C4587" s="0" t="s">
-        <v>8578</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="4588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4588" s="0" t="s">
-        <v>8579</v>
+        <v>8580</v>
       </c>
       <c r="C4588" s="0" t="s">
-        <v>8578</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="4589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4589" s="0" t="s">
-        <v>8580</v>
+        <v>8581</v>
       </c>
       <c r="C4589" s="0" t="s">
-        <v>8578</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="4590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4590" s="0" t="s">
-        <v>8581</v>
+        <v>8583</v>
       </c>
       <c r="C4590" s="0" t="s">
         <v>8582</v>
@@ -63899,10 +63911,26 @@
     </row>
     <row r="4591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4591" s="0" t="s">
-        <v>8583</v>
+        <v>8584</v>
       </c>
       <c r="C4591" s="0" t="s">
-        <v>8584</v>
+        <v>8582</v>
+      </c>
+    </row>
+    <row r="4592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4592" s="0" t="s">
+        <v>8585</v>
+      </c>
+      <c r="C4592" s="0" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="4593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4593" s="0" t="s">
+        <v>8587</v>
+      </c>
+      <c r="C4593" s="0" t="s">
+        <v>8588</v>
       </c>
     </row>
   </sheetData>

--- a/tools/odoo_default_tnl.xlsx
+++ b/tools/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9075" uniqueCount="8589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9079" uniqueCount="8592">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -10304,10 +10304,10 @@
     <t xml:space="preserve">Trovati record multipli in base al campo '%%(field)s' (%d trovati)</t>
   </si>
   <si>
-    <t xml:space="preserve">Found multiple records.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rilevati più record.</t>
+    <t xml:space="preserve">Found multiple records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rilevati più record</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -27392,6 +27392,15 @@
   </si>
   <si>
     <t xml:space="preserve">CAP non impostato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry-run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File dati Excel</t>
   </si>
 </sst>
 </file>
@@ -27505,13 +27514,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4593"/>
+  <dimension ref="A1:C4595"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3020" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3035" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1783" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1796" activeCellId="0" sqref="C1796"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.12"/>
@@ -63931,6 +63940,22 @@
       </c>
       <c r="C4593" s="0" t="s">
         <v>8588</v>
+      </c>
+    </row>
+    <row r="4594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4594" s="0" t="s">
+        <v>8589</v>
+      </c>
+      <c r="C4594" s="0" t="s">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="4595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4595" s="0" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C4595" s="0" t="s">
+        <v>8591</v>
       </c>
     </row>
   </sheetData>

--- a/tools/odoo_default_tnl.xlsx
+++ b/tools/odoo_default_tnl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9579" uniqueCount="9068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9589" uniqueCount="9078">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -27567,6 +27567,36 @@
   </si>
   <si>
     <t xml:space="preserve">CAP non impostato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anonymize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anonimizzare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assegnare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force the destination location rather than using customer location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forza la locazione di destinazione invece di usare quella del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Owner Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo gestione proprietario giacenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When picking is assigned the ownership of stock mey be automatically assigned (if value is 'assign') or anonymized (if value is 'anonymize') or neither assignment neither anonymizing will be done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando il prelievo è assegnato, la proprietà della giacenza può essere automaticamente assegnata (se il valore è ‘assegnare’) oppure anonimizzata (se il valore è ‘anonimizzare’) oppure non fare nulla</t>
   </si>
 </sst>
 </file>
@@ -27676,15 +27706,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -27693,10 +27714,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4792"/>
+  <dimension ref="A1:C4798"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4793" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4780" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4797" activeCellId="0" sqref="C4797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -66031,6 +66052,49 @@
         <v>9067</v>
       </c>
     </row>
+    <row r="4793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4793" s="1" t="s">
+        <v>9068</v>
+      </c>
+      <c r="C4793" s="1" t="s">
+        <v>9069</v>
+      </c>
+    </row>
+    <row r="4794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4794" s="1" t="s">
+        <v>9070</v>
+      </c>
+      <c r="C4794" s="1" t="s">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="4795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4795" s="1" t="s">
+        <v>9072</v>
+      </c>
+      <c r="C4795" s="1" t="s">
+        <v>9073</v>
+      </c>
+    </row>
+    <row r="4796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4796" s="1" t="s">
+        <v>9074</v>
+      </c>
+      <c r="C4796" s="1" t="s">
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="4797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4797" s="1" t="s">
+        <v>9076</v>
+      </c>
+      <c r="C4797" s="1" t="s">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="4798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4798" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
